--- a/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
+++ b/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
+++ b/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00545194</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Randomized Study on Removable PGE2 Vaginal Insert Versus PGE2 Intravaginal Gel for Cervical Priming and Labour Induction in Term Pregnancy</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -552,36 +562,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00988767</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Specific Vaccine Therapy in Chronic Hepatitis B Using a Naked DNA: Phase I Study Using a GMO</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>RBM99026</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -600,32 +615,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00236340</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Syringe or Continuous Amnioreduction for Symptomatic Polyhydramnios. A Prospective Randomized Study.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -644,32 +664,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT00272428</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>The SU.VI.MAX Study. A Randomized, Placebo-controlled Prevention Trial of the Health Effects of Antioxidant Vitamins and Minerals.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" t="b">
         <v>1</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -688,32 +713,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT00339157</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>ANAkinra in Severe Juvenile Idiopathic Arthritis of Systemic Onset (ANAJIS)</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -732,36 +762,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT01086904</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A (H1N1) après Transplantation rénale</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>Transfluvac</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -780,36 +815,41 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT01024400</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A(H1N1)v Chez la Femme Enceinte</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>PREFLUVAC</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" t="b">
         <v>1</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -828,36 +868,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT01188525</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Pharmacokinetic of Ten Parent Drugs and Their Metabolits in Order to Characterise Individual Metabolic Profile</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>CIME1</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -876,36 +921,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT01075061</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Study of a Large Family With Congenital Mirror Movements : From Underlying Pathophysiology to Culprit Gene Identification : MOMIC</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>MOMIC</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -924,36 +974,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01489592</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Effect of Curcumin on Iron Metabolism in Healthy Volunteer</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>CURHEP</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -972,32 +1027,37 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT01548586</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Modulation de l'excitabilité Des Aires Corticales Motrices Primaires Correspondant Aux hémi Diaphragmes à l'Aide de la tDCS (Transcranial Direct Current Stimulation)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1016,36 +1076,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT01331876</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Evaluation and Comparison of Cerebral Activities Modifications Associated With Two Different Cognitive and Behavioral Therapies for Obsessive Compulsive Disorder Patients</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>TOC TOC</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="L13" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1064,36 +1129,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT00820820</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Immunotherapy of Atopic Dermatitis in Adult Patients by Anti-measles Vaccination IDA (Immunothérapie de la Dermatite Atopique)Protocol</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>IDA-Adult</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1112,32 +1182,37 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01531036</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Imagerie 3D d'élasticité du Sein Par échographie Ultrarapide au Cours d'un Traitement Par chimiothérapie néoadjuvante.</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1156,36 +1231,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT01359774</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>31Phosphorus-Magnetic Resonance Spectroscopy and Huntington Disease</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>PRO-MH</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1204,32 +1284,37 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT01552044</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Evaluation de la Spironolactone Dans le Traitement Des choriorétinites séreuses Centrales Non résolutives à Trois Mois</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1248,36 +1333,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT01555450</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>The Patient Navigator to Reduce Social Inequalities. A French Interventional Trial in Public Health</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>PRADO</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" t="b">
         <v>1</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1296,36 +1386,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT01493934</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Development of a Fast Measurement Technique of Insulin Resistance in Human, With 123-6-deoxy-6 Iodo-D-glucose, a New Tracer of Glucose Transport</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>GLUCIMAG</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1344,32 +1439,37 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT01882062</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
         <is>
           <t>TRIHEP2</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>1</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1388,36 +1488,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT01579435</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Trans-crânienne Par Courant Direct (tDCS) du Cortex cérébelleux et du Cortex Moteur. Etude Exploratoire.</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>ELECTRE</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1436,32 +1541,37 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>NCT01094899</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Study of Abnormal Structure and Bone Density at the Feet of Diabetic Patients</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1480,36 +1590,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT01432821</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Dopaminergic Reactivity In Idiopathic Generalized Epilepsy: A "Proof Of Concept" Clinical, Pharmacological And Neurophysiological Study</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>BYE BYE DOPA</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
         <v>1</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1528,36 +1643,41 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT02113943</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Etude Comparative Monocentrique, randomisée, en Cross-over, en Double Aveugle, Contre Placebo, de l'Action du Citalopram Sur Les paramètres Cognitifs de la Motivation</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>MBBCitalopram</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1576,36 +1696,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT01495897</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Adaptation Sensorimotrice, Cervelet et Mouvements Anormaux: Projet d'étude Oculomotrice</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>MOUVADOC</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1624,32 +1749,37 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT02078076</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>IRM Cardiaque en Respiration Libre Pour Des Patients Atteints de Dystrophinopathie sévère</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -1668,28 +1798,30 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT01089387</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Intracavernous Bone Marrow Stem-cell Injection for Post Prostatectomy Erectile Dysfunction</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>INSTIN</t>
         </is>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
       </c>
       <c r="J27" t="b">
         <v>1</v>
@@ -1697,7 +1829,10 @@
       <c r="K27" t="b">
         <v>1</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1716,36 +1851,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT01490489</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>EG-VEGF (Endocrine Gland-derived Vascular Endothelial Growth Factor) in Normal and Pathological Pregnancies: Potential Marker of Pre-eclampsia and / or Intrauterine Growth Restriction</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>EGEVE</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28" t="b">
         <v>1</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1764,36 +1904,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT01688453</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Reduction of Inequalities in Overweight and Obesity Management Care Access Among High School Adolescents</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>PRALIMAP-INES</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>1</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -1812,36 +1957,41 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT03109067</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Influence of TaqIB (rs708272) Polymorphism in Cholesteryl Ester Transfer Protein (CETP) Gene on Functionality of HDL Particles, in the Pathway of Reverse Transport of Fasting and Post-prandial Cholesterol.</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>HDL-PP</t>
         </is>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
       <c r="J30" t="b">
         <v>0</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1860,36 +2010,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT02976298</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Rôle du Cervelet et de l'Aire Motrice supplémentaire Dans le contrôle Postural au Cours de la Marche Chez l'Homme</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>CERESMARCHE</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="b">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1908,28 +2063,30 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT01696708</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Study of the Brain Energy Profile Evolution, Using 31Phosphorus-Nuclear Magnetic Resonance Spectroscopy, at Different Stages of Huntington Disease</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>PRO-MH2</t>
         </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
       </c>
       <c r="J32" t="b">
         <v>1</v>
@@ -1937,7 +2094,10 @@
       <c r="K32" t="b">
         <v>1</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1956,36 +2116,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT02014727</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Safety and Immunogenicity of Recombinant Pichia Pastoris AMA1-DiCo Candidate Malaria Vaccine With GLA-SE and Alhydrogel ® as Adjuvant in Healthy Malaria Non-Exposed European and Malaria Exposed African Adults:a Staggered Phase Ia/Ib, Randomised, Double-blind, Multi-Centre Trial</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>AMA1-DiCo</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2004,36 +2169,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT01508494</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Evaluation de l'efficacité de la Galantamine Versus Placebo associée à Une Revalidation Neuropsychologique Chez Des Patients présentant un Trouble Cognitif après un Premier Infarctus cérébral : étude en Neuroimagerie Fonctionnelle</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>COGICRehab</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
         <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2052,36 +2222,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT02126384</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Analysis of the Response of Healthy Adults to a 23-valent Pneumococcal Polysaccharide Vaccine to Identify the B Cell Subsets Responsible for the Production of IgM, IgG2 and IgA Anti-pneumococcal Capsular Polysaccharides</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>PNEUMOVACB</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2100,36 +2275,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02073630</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Contribution du Cervelet Dans l'Adaptation Sensori-motrice Via Les Oscillations Gamma : le Cas de la Dystonie</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>GAMMA</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2148,36 +2328,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT02073604</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Rôle de la SMA Dans la préparation Des Mouvements Uni et Bi-manuels: le Paradigme Des Mouvements en Miroir</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>MOMIC2</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2196,36 +2381,41 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>NCT02267304</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Etude Comparative Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, de l'Action de la Morphine et de la Naloxone Dans un modèle Cognitif de Gestion Des Efforts Physiques</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>MBBAnalgesic</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2244,32 +2434,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT01569399</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Evaluation de l'efficacité thérapeutique de la Stimulation magnétique transcrânienne répétée Sur le Traitement du Craving à l'Alcool et la prévention de la Rechute Alcoolique à 6 Mois Chez Les Sujets dépendants et Des Facteurs génétiques déterminant la réponse thérapeutique</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2288,36 +2483,41 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT02082171</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Multidomain Intervention to Prevent Disability in Elders</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>MINDED</t>
         </is>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2336,36 +2536,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT01842477</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Evaluation of Efficacy and Safety of Autologous MSCs Combined to Biomaterials to Enhance Bone Healing in Patients With Delayed Consolidation After Long Bone Fracture Requiring Graft Apposition or Alternative Orthobiologics</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>OrthoCT1</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2384,32 +2589,37 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT02101398</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Etude de l'Effet de Stimulations transcrâniennes en Courant Continu (tDCS) Sur Les Performances en dénomination Chez le Sujet Aphasique à Moins d'un an de Son Accident Vasculaire cérébral : Comparaison de 5 Configurations de Stimulation</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2428,36 +2638,41 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02172677</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>ETUDE D'IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE CHEZ LE SUJET SAIN DES RELATIONS ENTRE MEMOIRE COLLECTIVE ET INDIVIDUELLE</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>MULTIBRAIN_1</t>
         </is>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2476,36 +2691,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02428816</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Evaluation and Validation of a Multimodal MRI Neuroimaging Method: Application to Differential Diagnosis and Disease Progression in Parkinsonian Syndromes</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>MultiPAMS</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2524,36 +2744,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT02542800</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>ETUDE D'IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE CHEZ LE SUJET SAIN DES RELATIONS ENTRE MEMOIRE COLLECTIVE ET INDIVIDUELLE</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>MULTIBRAIN_2</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -2572,36 +2797,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT00445575</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Effect of Risedronate on Bone Morbidity in Fibrous Dysplasia of Bone</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>PROFIDYS</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
         <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2620,36 +2850,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02978924</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Trans-spinal Direct Current Stimulation in Primary Orthostatic Tremor</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>STOP</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2668,28 +2903,30 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT02408354</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>"Etude Pilote, Comparative, Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, Testant l'efficacité de l'Huile triheptanoïne Dans Les Hémiplégies Alternantes de l'Enfant" HEMIHEP</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>HEMIHEP</t>
         </is>
-      </c>
-      <c r="I48" t="b">
-        <v>1</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
@@ -2697,7 +2934,10 @@
       <c r="K48" t="b">
         <v>1</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2716,28 +2956,30 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT02469350</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Feasibility and Acceptability Study of Serious Game Rehabilitation Program in Parkinson's Disease Patients With Resistant Gait and Balance Disorders</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>PARKGAME</t>
         </is>
-      </c>
-      <c r="I49" t="b">
-        <v>1</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
@@ -2745,7 +2987,10 @@
       <c r="K49" t="b">
         <v>1</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2764,36 +3009,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT02650427</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>A Pilot Study to Evaluate the Safety of a 3 Weeks Sitagliptin Treatment in HCC Patients Undergoing Liver Resection</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>HCC-DPPIV</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
         <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>0</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2812,36 +3062,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT02314208</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Therapeutic Metabolic Intervention in Patients With Spastic Paraplegia SPG5</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>SPA-M</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -2858,41 +3113,46 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2013-002996-16</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>ANRS SHS155 STIMAGO: Pilote study to evaluate the benefits and the risks of methylphenidate for the treatment of cocain dependence.  
  ANRS SHS155 STIMAGO : Etude pilote pour l’évaluation des bénéfices et des risques du méthylphénidate pour la prise en charge de la dépendance à la cocaïne.</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>ANRS SHS155 STIMAGO 
  ANRS SHS155 STIMAGO</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
         <v>0</v>
       </c>
       <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" t="b">
         <v>1</v>
       </c>
-      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2907,36 +3167,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT02051413</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Beta-arrestins and Response to Venlafaxine in Major Depressive Disorder</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>DEPARRESTCLIN</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2955,36 +3220,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT03446430</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Validation of Laser Doppler Vibrometer (LDV) for Measurement of Arterial Stiffness in Hypertensive Patients</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>CARDIS-PWV</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3003,36 +3273,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02481453</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Étude de l'Effet de la Rapamycine Sur la Force Musculaire et la réponse Immunitaire au Cours de la Myosite à Inclusions: étude RAPAMI"</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>RAPAMI</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3051,36 +3326,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT03005652</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>A Multicenter Randomized Superiority Study To Compare The Effects Of An 8-Weeks Mindfulness-based Intervention Versus Health Education Programme On Mental Health And Wellbeing In Individuals With Subjective Cognitive Decline</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>SCD-WELL</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>1</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3099,36 +3379,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT02960698</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Identifying the Neural Correlates of Cognitive Impulsivity in Patients With Tourette Syndrome. "COGIT".</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>COGIT</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3147,36 +3432,41 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>NCT02052271</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Transcranienne Par Courant Direct (tDCS) du Cortex Cerebelleux</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>ELECTRE2</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
         <v>0</v>
       </c>
-      <c r="L58" t="inlineStr">
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3195,36 +3485,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT02656407</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Doppler Ultrasonore Ultrasensible Peropératoire du Cerveau - Vers Une Aide Temps Reel à la Cartographie Corticale Fonctionnelle</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>FUSIMAGINE</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3243,36 +3538,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT02346409</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Cerebello-thalamo-cortical Coupling in Essential Tremor: Effects of High Frequency tACS of the Cerebellum</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>CERESTIM</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
         <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>0</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3291,28 +3591,30 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT02542891</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>E-Compared: Comparative Effectiveness Research on Internet Based Depression Treatment- French Trial</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>E-COMPARED</t>
         </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
       </c>
       <c r="J61" t="b">
         <v>1</v>
@@ -3320,7 +3622,10 @@
       <c r="K61" t="b">
         <v>1</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3339,36 +3644,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT02102737</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Comparaison d'Une Nouvelle Technique de Mesure de l'insulinorésistance Par Scintigraphie Avec la Technique de référence : Utilisation du 6-DIG Comme Marqueur du Transport du Glucose.</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>GLUCIMAG2</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3385,34 +3695,39 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2014-005112-42</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>A comparative phase2 study assessing the efficacy of triheptanoin, an anaplerotic therapy in Huntington's Disease (TRIHEP 3)</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
         <v>1</v>
       </c>
-      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3427,36 +3742,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT03193099</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Decoding Presymptomatic White Matter Changes in Huntington Disease</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>Win-HD</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3475,28 +3795,30 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT02014883</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Phase II Open Label Study Using Triheptanoin in Patients With Glucose Type 1 Transporter Deficiency GLUT1-DS</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>GLUT-HEP</t>
         </is>
-      </c>
-      <c r="I65" t="b">
-        <v>1</v>
       </c>
       <c r="J65" t="b">
         <v>1</v>
@@ -3504,7 +3826,10 @@
       <c r="K65" t="b">
         <v>1</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3523,36 +3848,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT02658253</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Phase Ia/Ib, Randomized, Double Blinded, Dose Escalation Trial to Evaluate the Safety and Immunogenicity in Healthy European and Burkinabe Adults of a Placental Malaria Vaccine Candidate (PRIMVAC) Formulated With Alhydrogel ® or GLA-SE</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>PRIMALVAC</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>1</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3571,36 +3901,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT01880151</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>NEw approacheS for The dIagnosis of AlzeiMer's diseAse Through neuroElectrical Changes in the Brain</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>ESTIMATE</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3619,36 +3954,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT02833961</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>DIFFUSION SPECTROSCOPY AND IMAGING IN ACUTE STROKE</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>ISIS</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
         <v>0</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="L68" t="b">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3667,28 +4007,30 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>NCT02453061</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>A Comparative Phase 2 Study Assessing the Efficacy of Triheptanoin, an Anaplerotic Therapy in Huntington's Disease</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>TRIHEP3</t>
         </is>
-      </c>
-      <c r="I69" t="b">
-        <v>1</v>
       </c>
       <c r="J69" t="b">
         <v>1</v>
@@ -3696,7 +4038,10 @@
       <c r="K69" t="b">
         <v>1</v>
       </c>
-      <c r="L69" t="inlineStr">
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3715,36 +4060,41 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT02567071</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Retablissement Du Microbiote Naturel Apres Naissance Par Cesarienne</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>RESTORE</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3763,32 +4113,37 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT03047967</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Effets du Tabagisme in Utero Sur la fonctionnalité de l'épithelium Respiratoire et Sur la Fonction Ventilatoire du Nouveau-né.</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -3807,36 +4162,41 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT03150290</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Energy Expenditure and Brown Adipose Tissue in Amyotrophic Lateral Sclerosis</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>BATALS</t>
         </is>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
       <c r="J72" t="b">
         <v>0</v>
       </c>
       <c r="K72" t="b">
         <v>0</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3855,36 +4215,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT02721745</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Cause and Consequence of Neural Fatigue</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>Fatstim</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -3903,36 +4268,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT02081066</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Relationship Between Endogenous CETP Activity and Atherosclerosis Distribution in Patients With High Cardiovascular Risk</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>CETP-ATHERO</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3951,36 +4321,41 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT02931097</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Effects of Deep Brain Stimulation of the Mesencephalic Locomotor Region on Gait and Balance Disorders in Parkinson's Disease Patients : a Randomized, Double-blind, Cross-over Study</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>GAITPARK</t>
         </is>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
       <c r="J75" t="b">
         <v>0</v>
       </c>
       <c r="K75" t="b">
         <v>0</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -3999,36 +4374,41 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT05090956</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Mise au Point de Protocoles RMN Sur l'Imageur Philips 3T installé Sur le Site du Pavillon Baudot du CHU Purpan à Toulouse</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>(MISAP)</t>
         </is>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
       <c r="J76" t="b">
         <v>0</v>
       </c>
       <c r="K76" t="b">
         <v>0</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4047,36 +4427,41 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT04808986</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Séroprévalence Des IgG dirigés Contre le SARS-CoV-2 Chez Les Professionnels de santé en Soins Primaires et Leurs Contacts au Sein Des ménages</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>COVID-SeroPRIM</t>
         </is>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
       <c r="J77" t="b">
         <v>0</v>
       </c>
       <c r="K77" t="b">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4095,36 +4480,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT04780191</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Investigation of Treatment Using the MyoRegulator® Device in Patients With Spasticity in the Lower Limb Due to Stroke</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>SPAST</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4143,36 +4533,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT02236832</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Organisation du Cortex préfrontal ventrolatéral Pour l'Analogie: Approche Bimodale Chez le Sujet Sain et Chez le Patient Ayant un Syndrome Frontal.</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>ANALOG</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4191,36 +4586,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT02027233</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Efficiency in Population of Influenza Vaccination for Flu Prevention of the Hospitalized Adults</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>FLUVAC EV-03</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4239,36 +4639,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT04265742</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Microbiota and Bone Fragility: Study of the Relation Between Gut Microbiota and Bone Microarchitecture (Microbone)</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>MICROBONE</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -4287,28 +4692,30 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT04945655</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Impact of a School- and Primary Care-based Multicomponent Intervention on HPV Vaccination Acceptability Among French Adolescents: a Cluster Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>PrevHPV</t>
         </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
       </c>
       <c r="J82" t="b">
         <v>1</v>
@@ -4316,7 +4723,10 @@
       <c r="K82" t="b">
         <v>1</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4335,36 +4745,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT04484740</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Penetration of the Innovative Antibiotic Gepotidacin Into Prostate and Tonsillar Tissue.</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>AB-Direct</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4383,28 +4798,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT04315948</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Multi-centre, Adaptive, Randomized Trial of the Safety and Efficacy of Treatments of COVID-19 in Hospitalized Adults</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>DisCoVeRy</t>
         </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
@@ -4412,7 +4829,10 @@
       <c r="K84" t="b">
         <v>1</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4431,36 +4851,41 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT04272970</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Characterization of New Candidate Genes in Cases of Human Inherited Thrombocytopenia (CATCH). Molecular Etiologies in Cases of Thrombocytopenia</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>CATCH</t>
         </is>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4479,28 +4904,30 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT03272230</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Assessment of Apathy in a Real-life Situation, With a Video and Sensors-based System in Healthy Subject and Patient With Cerebral Disease</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>ECOCAPTURE</t>
         </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
       </c>
       <c r="J86" t="b">
         <v>1</v>
@@ -4508,7 +4935,10 @@
       <c r="K86" t="b">
         <v>1</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -4527,36 +4957,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT05711693</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Integrated Silicon Photonics for Cardiovascular Disease Monitoring InSiDe-CC Clinical Validation of the Diagnostic Device (LDV) for the Measurement of Heart-carotid Pulse Wave Velocity (PWV) by Magnetic Resonance Imaging (MRI)</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>InSide-CC</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4575,36 +5010,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT06431984</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Kit de Pharmacologie Spatial - Analyse de l'Utilisation Des Dried Blood Spot Pour le Dosage de la caféine Chez Des Volontaires Sains en microgravité au Cours Des Vols Paraboliques</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>PSK</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -4623,32 +5063,37 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT04396288</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Characterization of Intra-osseous Vascular Response With Ultrasound Imaging on Healthy Volunteers</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="b">
         <v>0</v>
       </c>
       <c r="K89" t="b">
         <v>0</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>0</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4667,36 +5112,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT04921930</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Evaluation of the Effect of Artesunate in Friedreich Ataxia (FA) Phase I-II Efficacy-Toxicity of Artesunate in Friedreich Ataxia</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>ARTEMIS</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4713,35 +5163,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>2021-000509-26</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
         <is>
           <t>A phase II trial assessing immunogenicity and safety of COVID-19 mRNA Vaccine BNT162b2 in adult volunteers with no history of SARS CoV-2 infection administered with two doses of vaccine (D1-D29) and in adult volunteers with documented history of SARS CoV-2 infection (of more than 6 months) administered with only one dose of vaccine 
  Essai de phase II évaluant l'immunogénicité et la sécurité du vaccin à ARNm COVID-19 BNT162b2 chez des participants adultes sans antécédents d'infection par le SARS CoV-2, administrés avec deux doses de vaccin (J1-J29) et chez des participants adultes ayant des antécédents documentés d'infection par le SRAS CoV-2 (de plus de 6 mois), administrés avec une seule dose de vaccin.</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
       <c r="J91" t="b">
         <v>0</v>
       </c>
       <c r="K91" t="b">
         <v>0</v>
       </c>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="b">
+        <v>0</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4754,36 +5209,41 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2017-000040-17</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
         <is>
           <t>Randomized, open-label and multicentric trial evaluating the non-inferiority of antiretroviral treatment taken 4 consecutive days per week versus continuous therapy 7/7 days per week in HIV-1 infected patients with controlled viral load under antiretroviral therapy 
  Essai multicentrique, en ouvert, randomisé en 2 groupes parallèles, évaluant la non-infériorité d’un traitement de maintenance à 4 jours consécutifs sur 7 versus la poursuite du traitement antirétroviral en continu, chez des patients en succès thérapeutique sous ARV.</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>QUATUOR 
  QUATUOR</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4796,34 +5256,39 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2007-007267-25</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
         <is>
           <t>Immunothérapie par vaccination anti-rougeoleuse chez l'adulte atteint de dermatite atopique</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>Protocole IDA</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" t="b">
         <v>1</v>
       </c>
-      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4836,35 +5301,40 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>2019-002829-29</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
         <is>
           <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex with Men using oral TDF/FTC for HIV Pre-Exposure Prophylaxis (PrEP) 
  Prévention combinée des infections sexuellement transmissibles (IST) chez les hommes ayant des rapports sexuels avec des hommes utilisant le TDF/FTC par voie orale pour la prophylaxie préexposition au VIH (PrEP)</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>Doxyvac</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
+++ b/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
+++ b/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
+++ b/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00545194</t>

--- a/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
+++ b/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
@@ -73,234 +73,234 @@
     <t>NCT00988767</t>
   </si>
   <si>
+    <t>NCT00272428</t>
+  </si>
+  <si>
     <t>NCT00236340</t>
   </si>
   <si>
-    <t>NCT00272428</t>
-  </si>
-  <si>
     <t>NCT00339157</t>
   </si>
   <si>
+    <t>NCT01024400</t>
+  </si>
+  <si>
     <t>NCT01086904</t>
   </si>
   <si>
-    <t>NCT01024400</t>
+    <t>NCT01075061</t>
   </si>
   <si>
     <t>NCT01188525</t>
   </si>
   <si>
-    <t>NCT01075061</t>
-  </si>
-  <si>
     <t>NCT01489592</t>
   </si>
   <si>
     <t>NCT01548586</t>
   </si>
   <si>
+    <t>NCT00820820</t>
+  </si>
+  <si>
+    <t>NCT01531036</t>
+  </si>
+  <si>
     <t>NCT01331876</t>
   </si>
   <si>
-    <t>NCT00820820</t>
-  </si>
-  <si>
-    <t>NCT01531036</t>
-  </si>
-  <si>
     <t>NCT01359774</t>
   </si>
   <si>
+    <t>NCT01555450</t>
+  </si>
+  <si>
+    <t>NCT01882062</t>
+  </si>
+  <si>
+    <t>NCT01579435</t>
+  </si>
+  <si>
     <t>NCT01552044</t>
   </si>
   <si>
-    <t>NCT01555450</t>
-  </si>
-  <si>
     <t>NCT01493934</t>
   </si>
   <si>
-    <t>NCT01882062</t>
-  </si>
-  <si>
-    <t>NCT01579435</t>
-  </si>
-  <si>
     <t>NCT01094899</t>
   </si>
   <si>
+    <t>NCT02113943</t>
+  </si>
+  <si>
     <t>NCT01432821</t>
   </si>
   <si>
-    <t>NCT02113943</t>
-  </si>
-  <si>
     <t>NCT01495897</t>
   </si>
   <si>
+    <t>NCT01089387</t>
+  </si>
+  <si>
+    <t>NCT02014727</t>
+  </si>
+  <si>
+    <t>NCT01490489</t>
+  </si>
+  <si>
     <t>NCT02078076</t>
   </si>
   <si>
-    <t>NCT01089387</t>
-  </si>
-  <si>
-    <t>NCT01490489</t>
-  </si>
-  <si>
     <t>NCT01688453</t>
   </si>
   <si>
+    <t>NCT02976298</t>
+  </si>
+  <si>
+    <t>NCT01696708</t>
+  </si>
+  <si>
     <t>NCT03109067</t>
   </si>
   <si>
-    <t>NCT02976298</t>
-  </si>
-  <si>
-    <t>NCT01696708</t>
-  </si>
-  <si>
-    <t>NCT02014727</t>
+    <t>NCT02073630</t>
+  </si>
+  <si>
+    <t>NCT02073604</t>
+  </si>
+  <si>
+    <t>NCT01842477</t>
+  </si>
+  <si>
+    <t>NCT01569399</t>
+  </si>
+  <si>
+    <t>NCT02267304</t>
+  </si>
+  <si>
+    <t>NCT02172677</t>
+  </si>
+  <si>
+    <t>NCT02126384</t>
+  </si>
+  <si>
+    <t>NCT02101398</t>
+  </si>
+  <si>
+    <t>NCT02082171</t>
+  </si>
+  <si>
+    <t>NCT02428816</t>
   </si>
   <si>
     <t>NCT01508494</t>
   </si>
   <si>
-    <t>NCT02126384</t>
-  </si>
-  <si>
-    <t>NCT02073630</t>
-  </si>
-  <si>
-    <t>NCT02073604</t>
-  </si>
-  <si>
-    <t>NCT02267304</t>
-  </si>
-  <si>
-    <t>NCT01569399</t>
-  </si>
-  <si>
-    <t>NCT02082171</t>
-  </si>
-  <si>
-    <t>NCT01842477</t>
-  </si>
-  <si>
-    <t>NCT02101398</t>
-  </si>
-  <si>
-    <t>NCT02172677</t>
-  </si>
-  <si>
-    <t>NCT02428816</t>
+    <t>NCT00445575</t>
+  </si>
+  <si>
+    <t>NCT02978924</t>
+  </si>
+  <si>
+    <t>NCT02469350</t>
   </si>
   <si>
     <t>NCT02542800</t>
   </si>
   <si>
-    <t>NCT00445575</t>
-  </si>
-  <si>
-    <t>NCT02978924</t>
-  </si>
-  <si>
     <t>NCT02408354</t>
   </si>
   <si>
-    <t>NCT02469350</t>
+    <t>NCT02481453</t>
+  </si>
+  <si>
+    <t>NCT02102737</t>
+  </si>
+  <si>
+    <t>NCT02346409</t>
+  </si>
+  <si>
+    <t>NCT02960698</t>
+  </si>
+  <si>
+    <t>NCT02314208</t>
+  </si>
+  <si>
+    <t>NCT02051413</t>
+  </si>
+  <si>
+    <t>NCT03005652</t>
+  </si>
+  <si>
+    <t>NCT02052271</t>
+  </si>
+  <si>
+    <t>NCT02542891</t>
+  </si>
+  <si>
+    <t>NCT03446430</t>
+  </si>
+  <si>
+    <t>NCT02656407</t>
   </si>
   <si>
     <t>NCT02650427</t>
   </si>
   <si>
-    <t>NCT02314208</t>
-  </si>
-  <si>
-    <t>NCT02051413</t>
-  </si>
-  <si>
-    <t>NCT03446430</t>
-  </si>
-  <si>
-    <t>NCT02481453</t>
-  </si>
-  <si>
-    <t>NCT03005652</t>
-  </si>
-  <si>
-    <t>NCT02960698</t>
-  </si>
-  <si>
-    <t>NCT02052271</t>
-  </si>
-  <si>
-    <t>NCT02656407</t>
-  </si>
-  <si>
-    <t>NCT02346409</t>
-  </si>
-  <si>
-    <t>NCT02542891</t>
-  </si>
-  <si>
-    <t>NCT02102737</t>
+    <t>NCT02658253</t>
+  </si>
+  <si>
+    <t>NCT01880151</t>
+  </si>
+  <si>
+    <t>NCT02453061</t>
+  </si>
+  <si>
+    <t>NCT02567071</t>
+  </si>
+  <si>
+    <t>NCT02833961</t>
+  </si>
+  <si>
+    <t>NCT02014883</t>
   </si>
   <si>
     <t>NCT03193099</t>
   </si>
   <si>
-    <t>NCT02014883</t>
-  </si>
-  <si>
-    <t>NCT02658253</t>
-  </si>
-  <si>
-    <t>NCT01880151</t>
-  </si>
-  <si>
-    <t>NCT02833961</t>
-  </si>
-  <si>
-    <t>NCT02453061</t>
-  </si>
-  <si>
-    <t>NCT02567071</t>
+    <t>NCT03150290</t>
   </si>
   <si>
     <t>NCT03047967</t>
   </si>
   <si>
-    <t>NCT03150290</t>
+    <t>NCT02081066</t>
+  </si>
+  <si>
+    <t>NCT02931097</t>
+  </si>
+  <si>
+    <t>NCT05090956</t>
   </si>
   <si>
     <t>NCT02721745</t>
   </si>
   <si>
-    <t>NCT02081066</t>
-  </si>
-  <si>
-    <t>NCT02931097</t>
-  </si>
-  <si>
-    <t>NCT05090956</t>
-  </si>
-  <si>
     <t>NCT04808986</t>
   </si>
   <si>
+    <t>NCT02236832</t>
+  </si>
+  <si>
     <t>NCT04780191</t>
   </si>
   <si>
-    <t>NCT02236832</t>
+    <t>NCT04265742</t>
   </si>
   <si>
     <t>NCT02027233</t>
   </si>
   <si>
-    <t>NCT04265742</t>
-  </si>
-  <si>
     <t>NCT04945655</t>
   </si>
   <si>
@@ -310,21 +310,21 @@
     <t>NCT04315948</t>
   </si>
   <si>
+    <t>NCT06431984</t>
+  </si>
+  <si>
     <t>NCT04272970</t>
   </si>
   <si>
+    <t>NCT05711693</t>
+  </si>
+  <si>
+    <t>NCT04396288</t>
+  </si>
+  <si>
     <t>NCT03272230</t>
   </si>
   <si>
-    <t>NCT05711693</t>
-  </si>
-  <si>
-    <t>NCT06431984</t>
-  </si>
-  <si>
-    <t>NCT04396288</t>
-  </si>
-  <si>
     <t>NCT04921930</t>
   </si>
   <si>
@@ -334,6 +334,9 @@
     <t>2014-005112-42</t>
   </si>
   <si>
+    <t>2019-002829-29</t>
+  </si>
+  <si>
     <t>2021-000509-26</t>
   </si>
   <si>
@@ -343,9 +346,6 @@
     <t>2007-007267-25</t>
   </si>
   <si>
-    <t>2019-002829-29</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
@@ -406,235 +406,235 @@
     <t>Specific Vaccine Therapy in Chronic Hepatitis B Using a Naked DNA: Phase I Study Using a GMO</t>
   </si>
   <si>
+    <t>The SU.VI.MAX Study. A Randomized, Placebo-controlled Prevention Trial of the Health Effects of Antioxidant Vitamins and Minerals.</t>
+  </si>
+  <si>
     <t>Syringe or Continuous Amnioreduction for Symptomatic Polyhydramnios. A Prospective Randomized Study.</t>
   </si>
   <si>
-    <t>The SU.VI.MAX Study. A Randomized, Placebo-controlled Prevention Trial of the Health Effects of Antioxidant Vitamins and Minerals.</t>
-  </si>
-  <si>
     <t>ANAkinra in Severe Juvenile Idiopathic Arthritis of Systemic Onset (ANAJIS)</t>
   </si>
   <si>
+    <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A(H1N1)v Chez la Femme Enceinte</t>
+  </si>
+  <si>
     <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A (H1N1) après Transplantation rénale</t>
   </si>
   <si>
-    <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A(H1N1)v Chez la Femme Enceinte</t>
+    <t>Study of a Large Family With Congenital Mirror Movements : From Underlying Pathophysiology to Culprit Gene Identification : MOMIC</t>
   </si>
   <si>
     <t>Pharmacokinetic of Ten Parent Drugs and Their Metabolits in Order to Characterise Individual Metabolic Profile</t>
   </si>
   <si>
-    <t>Study of a Large Family With Congenital Mirror Movements : From Underlying Pathophysiology to Culprit Gene Identification : MOMIC</t>
-  </si>
-  <si>
     <t>Effect of Curcumin on Iron Metabolism in Healthy Volunteer</t>
   </si>
   <si>
     <t>Modulation de l'excitabilité Des Aires Corticales Motrices Primaires Correspondant Aux hémi Diaphragmes à l'Aide de la tDCS (Transcranial Direct Current Stimulation)</t>
   </si>
   <si>
+    <t>Immunotherapy of Atopic Dermatitis in Adult Patients by Anti-measles Vaccination IDA (Immunothérapie de la Dermatite Atopique)Protocol</t>
+  </si>
+  <si>
+    <t>Imagerie 3D d'élasticité du Sein Par échographie Ultrarapide au Cours d'un Traitement Par chimiothérapie néoadjuvante.</t>
+  </si>
+  <si>
     <t>Evaluation and Comparison of Cerebral Activities Modifications Associated With Two Different Cognitive and Behavioral Therapies for Obsessive Compulsive Disorder Patients</t>
   </si>
   <si>
-    <t>Immunotherapy of Atopic Dermatitis in Adult Patients by Anti-measles Vaccination IDA (Immunothérapie de la Dermatite Atopique)Protocol</t>
-  </si>
-  <si>
-    <t>Imagerie 3D d'élasticité du Sein Par échographie Ultrarapide au Cours d'un Traitement Par chimiothérapie néoadjuvante.</t>
-  </si>
-  <si>
     <t>31Phosphorus-Magnetic Resonance Spectroscopy and Huntington Disease</t>
   </si>
   <si>
+    <t>The Patient Navigator to Reduce Social Inequalities. A French Interventional Trial in Public Health</t>
+  </si>
+  <si>
+    <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Trans-crânienne Par Courant Direct (tDCS) du Cortex cérébelleux et du Cortex Moteur. Etude Exploratoire.</t>
+  </si>
+  <si>
     <t>Evaluation de la Spironolactone Dans le Traitement Des choriorétinites séreuses Centrales Non résolutives à Trois Mois</t>
   </si>
   <si>
-    <t>The Patient Navigator to Reduce Social Inequalities. A French Interventional Trial in Public Health</t>
-  </si>
-  <si>
     <t>Development of a Fast Measurement Technique of Insulin Resistance in Human, With 123-6-deoxy-6 Iodo-D-glucose, a New Tracer of Glucose Transport</t>
   </si>
   <si>
-    <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Trans-crânienne Par Courant Direct (tDCS) du Cortex cérébelleux et du Cortex Moteur. Etude Exploratoire.</t>
-  </si>
-  <si>
     <t>Study of Abnormal Structure and Bone Density at the Feet of Diabetic Patients</t>
   </si>
   <si>
+    <t>Etude Comparative Monocentrique, randomisée, en Cross-over, en Double Aveugle, Contre Placebo, de l'Action du Citalopram Sur Les paramètres Cognitifs de la Motivation</t>
+  </si>
+  <si>
     <t>Dopaminergic Reactivity In Idiopathic Generalized Epilepsy: A "Proof Of Concept" Clinical, Pharmacological And Neurophysiological Study</t>
   </si>
   <si>
-    <t>Etude Comparative Monocentrique, randomisée, en Cross-over, en Double Aveugle, Contre Placebo, de l'Action du Citalopram Sur Les paramètres Cognitifs de la Motivation</t>
-  </si>
-  <si>
     <t>Adaptation Sensorimotrice, Cervelet et Mouvements Anormaux: Projet d'étude Oculomotrice</t>
   </si>
   <si>
+    <t>Intracavernous Bone Marrow Stem-cell Injection for Post Prostatectomy Erectile Dysfunction</t>
+  </si>
+  <si>
+    <t>Safety and Immunogenicity of Recombinant Pichia Pastoris AMA1-DiCo Candidate Malaria Vaccine With GLA-SE and Alhydrogel ® as Adjuvant in Healthy Malaria Non-Exposed European and Malaria Exposed African Adults:a Staggered Phase Ia/Ib, Randomised, Double-blind, Multi-Centre Trial</t>
+  </si>
+  <si>
+    <t>EG-VEGF (Endocrine Gland-derived Vascular Endothelial Growth Factor) in Normal and Pathological Pregnancies: Potential Marker of Pre-eclampsia and / or Intrauterine Growth Restriction</t>
+  </si>
+  <si>
     <t>IRM Cardiaque en Respiration Libre Pour Des Patients Atteints de Dystrophinopathie sévère</t>
   </si>
   <si>
-    <t>Intracavernous Bone Marrow Stem-cell Injection for Post Prostatectomy Erectile Dysfunction</t>
-  </si>
-  <si>
-    <t>EG-VEGF (Endocrine Gland-derived Vascular Endothelial Growth Factor) in Normal and Pathological Pregnancies: Potential Marker of Pre-eclampsia and / or Intrauterine Growth Restriction</t>
-  </si>
-  <si>
     <t>Reduction of Inequalities in Overweight and Obesity Management Care Access Among High School Adolescents</t>
   </si>
   <si>
+    <t>Rôle du Cervelet et de l'Aire Motrice supplémentaire Dans le contrôle Postural au Cours de la Marche Chez l'Homme</t>
+  </si>
+  <si>
+    <t>Study of the Brain Energy Profile Evolution, Using 31Phosphorus-Nuclear Magnetic Resonance Spectroscopy, at Different Stages of Huntington Disease</t>
+  </si>
+  <si>
     <t>Influence of TaqIB (rs708272) Polymorphism in Cholesteryl Ester Transfer Protein (CETP) Gene on Functionality of HDL Particles, in the Pathway of Reverse Transport of Fasting and Post-prandial Cholesterol.</t>
   </si>
   <si>
-    <t>Rôle du Cervelet et de l'Aire Motrice supplémentaire Dans le contrôle Postural au Cours de la Marche Chez l'Homme</t>
-  </si>
-  <si>
-    <t>Study of the Brain Energy Profile Evolution, Using 31Phosphorus-Nuclear Magnetic Resonance Spectroscopy, at Different Stages of Huntington Disease</t>
-  </si>
-  <si>
-    <t>Safety and Immunogenicity of Recombinant Pichia Pastoris AMA1-DiCo Candidate Malaria Vaccine With GLA-SE and Alhydrogel ® as Adjuvant in Healthy Malaria Non-Exposed European and Malaria Exposed African Adults:a Staggered Phase Ia/Ib, Randomised, Double-blind, Multi-Centre Trial</t>
+    <t>Contribution du Cervelet Dans l'Adaptation Sensori-motrice Via Les Oscillations Gamma : le Cas de la Dystonie</t>
+  </si>
+  <si>
+    <t>Rôle de la SMA Dans la préparation Des Mouvements Uni et Bi-manuels: le Paradigme Des Mouvements en Miroir</t>
+  </si>
+  <si>
+    <t>Evaluation of Efficacy and Safety of Autologous MSCs Combined to Biomaterials to Enhance Bone Healing in Patients With Delayed Consolidation After Long Bone Fracture Requiring Graft Apposition or Alternative Orthobiologics</t>
+  </si>
+  <si>
+    <t>Evaluation de l'efficacité thérapeutique de la Stimulation magnétique transcrânienne répétée Sur le Traitement du Craving à l'Alcool et la prévention de la Rechute Alcoolique à 6 Mois Chez Les Sujets dépendants et Des Facteurs génétiques déterminant la réponse thérapeutique</t>
+  </si>
+  <si>
+    <t>Etude Comparative Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, de l'Action de la Morphine et de la Naloxone Dans un modèle Cognitif de Gestion Des Efforts Physiques</t>
+  </si>
+  <si>
+    <t>ETUDE D'IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE CHEZ LE SUJET SAIN DES RELATIONS ENTRE MEMOIRE COLLECTIVE ET INDIVIDUELLE</t>
+  </si>
+  <si>
+    <t>Analysis of the Response of Healthy Adults to a 23-valent Pneumococcal Polysaccharide Vaccine to Identify the B Cell Subsets Responsible for the Production of IgM, IgG2 and IgA Anti-pneumococcal Capsular Polysaccharides</t>
+  </si>
+  <si>
+    <t>Etude de l'Effet de Stimulations transcrâniennes en Courant Continu (tDCS) Sur Les Performances en dénomination Chez le Sujet Aphasique à Moins d'un an de Son Accident Vasculaire cérébral : Comparaison de 5 Configurations de Stimulation</t>
+  </si>
+  <si>
+    <t>Multidomain Intervention to Prevent Disability in Elders</t>
+  </si>
+  <si>
+    <t>Evaluation and Validation of a Multimodal MRI Neuroimaging Method: Application to Differential Diagnosis and Disease Progression in Parkinsonian Syndromes</t>
   </si>
   <si>
     <t>Evaluation de l'efficacité de la Galantamine Versus Placebo associée à Une Revalidation Neuropsychologique Chez Des Patients présentant un Trouble Cognitif après un Premier Infarctus cérébral : étude en Neuroimagerie Fonctionnelle</t>
   </si>
   <si>
-    <t>Analysis of the Response of Healthy Adults to a 23-valent Pneumococcal Polysaccharide Vaccine to Identify the B Cell Subsets Responsible for the Production of IgM, IgG2 and IgA Anti-pneumococcal Capsular Polysaccharides</t>
-  </si>
-  <si>
-    <t>Contribution du Cervelet Dans l'Adaptation Sensori-motrice Via Les Oscillations Gamma : le Cas de la Dystonie</t>
-  </si>
-  <si>
-    <t>Rôle de la SMA Dans la préparation Des Mouvements Uni et Bi-manuels: le Paradigme Des Mouvements en Miroir</t>
-  </si>
-  <si>
-    <t>Etude Comparative Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, de l'Action de la Morphine et de la Naloxone Dans un modèle Cognitif de Gestion Des Efforts Physiques</t>
-  </si>
-  <si>
-    <t>Evaluation de l'efficacité thérapeutique de la Stimulation magnétique transcrânienne répétée Sur le Traitement du Craving à l'Alcool et la prévention de la Rechute Alcoolique à 6 Mois Chez Les Sujets dépendants et Des Facteurs génétiques déterminant la réponse thérapeutique</t>
-  </si>
-  <si>
-    <t>Multidomain Intervention to Prevent Disability in Elders</t>
-  </si>
-  <si>
-    <t>Evaluation of Efficacy and Safety of Autologous MSCs Combined to Biomaterials to Enhance Bone Healing in Patients With Delayed Consolidation After Long Bone Fracture Requiring Graft Apposition or Alternative Orthobiologics</t>
-  </si>
-  <si>
-    <t>Etude de l'Effet de Stimulations transcrâniennes en Courant Continu (tDCS) Sur Les Performances en dénomination Chez le Sujet Aphasique à Moins d'un an de Son Accident Vasculaire cérébral : Comparaison de 5 Configurations de Stimulation</t>
-  </si>
-  <si>
-    <t>ETUDE D'IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE CHEZ LE SUJET SAIN DES RELATIONS ENTRE MEMOIRE COLLECTIVE ET INDIVIDUELLE</t>
-  </si>
-  <si>
-    <t>Evaluation and Validation of a Multimodal MRI Neuroimaging Method: Application to Differential Diagnosis and Disease Progression in Parkinsonian Syndromes</t>
-  </si>
-  <si>
     <t>Effect of Risedronate on Bone Morbidity in Fibrous Dysplasia of Bone</t>
   </si>
   <si>
     <t>Trans-spinal Direct Current Stimulation in Primary Orthostatic Tremor</t>
   </si>
   <si>
+    <t>Feasibility and Acceptability Study of Serious Game Rehabilitation Program in Parkinson's Disease Patients With Resistant Gait and Balance Disorders</t>
+  </si>
+  <si>
     <t>"Etude Pilote, Comparative, Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, Testant l'efficacité de l'Huile triheptanoïne Dans Les Hémiplégies Alternantes de l'Enfant" HEMIHEP</t>
-  </si>
-  <si>
-    <t>Feasibility and Acceptability Study of Serious Game Rehabilitation Program in Parkinson's Disease Patients With Resistant Gait and Balance Disorders</t>
-  </si>
-  <si>
-    <t>A Pilot Study to Evaluate the Safety of a 3 Weeks Sitagliptin Treatment in HCC Patients Undergoing Liver Resection</t>
-  </si>
-  <si>
-    <t>Therapeutic Metabolic Intervention in Patients With Spastic Paraplegia SPG5</t>
   </si>
   <si>
     <t>ANRS SHS155 STIMAGO: Pilote study to evaluate the benefits and the risks of methylphenidate for the treatment of cocain dependence._x000D_ 
  ANRS SHS155 STIMAGO : Etude pilote pour l’évaluation des bénéfices et des risques du méthylphénidate pour la prise en charge de la dépendance à la cocaïne.</t>
   </si>
   <si>
+    <t>Étude de l'Effet de la Rapamycine Sur la Force Musculaire et la réponse Immunitaire au Cours de la Myosite à Inclusions: étude RAPAMI"</t>
+  </si>
+  <si>
+    <t>Comparaison d'Une Nouvelle Technique de Mesure de l'insulinorésistance Par Scintigraphie Avec la Technique de référence : Utilisation du 6-DIG Comme Marqueur du Transport du Glucose.</t>
+  </si>
+  <si>
+    <t>Cerebello-thalamo-cortical Coupling in Essential Tremor: Effects of High Frequency tACS of the Cerebellum</t>
+  </si>
+  <si>
+    <t>Identifying the Neural Correlates of Cognitive Impulsivity in Patients With Tourette Syndrome. "COGIT".</t>
+  </si>
+  <si>
+    <t>Therapeutic Metabolic Intervention in Patients With Spastic Paraplegia SPG5</t>
+  </si>
+  <si>
     <t>Beta-arrestins and Response to Venlafaxine in Major Depressive Disorder</t>
   </si>
   <si>
+    <t>A Multicenter Randomized Superiority Study To Compare The Effects Of An 8-Weeks Mindfulness-based Intervention Versus Health Education Programme On Mental Health And Wellbeing In Individuals With Subjective Cognitive Decline</t>
+  </si>
+  <si>
+    <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Transcranienne Par Courant Direct (tDCS) du Cortex Cerebelleux</t>
+  </si>
+  <si>
+    <t>E-Compared: Comparative Effectiveness Research on Internet Based Depression Treatment- French Trial</t>
+  </si>
+  <si>
     <t>Validation of Laser Doppler Vibrometer (LDV) for Measurement of Arterial Stiffness in Hypertensive Patients</t>
   </si>
   <si>
-    <t>Étude de l'Effet de la Rapamycine Sur la Force Musculaire et la réponse Immunitaire au Cours de la Myosite à Inclusions: étude RAPAMI"</t>
-  </si>
-  <si>
-    <t>A Multicenter Randomized Superiority Study To Compare The Effects Of An 8-Weeks Mindfulness-based Intervention Versus Health Education Programme On Mental Health And Wellbeing In Individuals With Subjective Cognitive Decline</t>
-  </si>
-  <si>
-    <t>Identifying the Neural Correlates of Cognitive Impulsivity in Patients With Tourette Syndrome. "COGIT".</t>
-  </si>
-  <si>
-    <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Transcranienne Par Courant Direct (tDCS) du Cortex Cerebelleux</t>
-  </si>
-  <si>
     <t>Doppler Ultrasonore Ultrasensible Peropératoire du Cerveau - Vers Une Aide Temps Reel à la Cartographie Corticale Fonctionnelle</t>
   </si>
   <si>
-    <t>Cerebello-thalamo-cortical Coupling in Essential Tremor: Effects of High Frequency tACS of the Cerebellum</t>
-  </si>
-  <si>
-    <t>E-Compared: Comparative Effectiveness Research on Internet Based Depression Treatment- French Trial</t>
-  </si>
-  <si>
-    <t>Comparaison d'Une Nouvelle Technique de Mesure de l'insulinorésistance Par Scintigraphie Avec la Technique de référence : Utilisation du 6-DIG Comme Marqueur du Transport du Glucose.</t>
+    <t>A Pilot Study to Evaluate the Safety of a 3 Weeks Sitagliptin Treatment in HCC Patients Undergoing Liver Resection</t>
+  </si>
+  <si>
+    <t>Phase Ia/Ib, Randomized, Double Blinded, Dose Escalation Trial to Evaluate the Safety and Immunogenicity in Healthy European and Burkinabe Adults of a Placental Malaria Vaccine Candidate (PRIMVAC) Formulated With Alhydrogel ® or GLA-SE</t>
+  </si>
+  <si>
+    <t>NEw approacheS for The dIagnosis of AlzeiMer's diseAse Through neuroElectrical Changes in the Brain</t>
+  </si>
+  <si>
+    <t>A Comparative Phase 2 Study Assessing the Efficacy of Triheptanoin, an Anaplerotic Therapy in Huntington's Disease</t>
   </si>
   <si>
     <t>A comparative phase2 study assessing the efficacy of triheptanoin, an anaplerotic therapy in Huntington's Disease (TRIHEP 3)</t>
   </si>
   <si>
+    <t>Retablissement Du Microbiote Naturel Apres Naissance Par Cesarienne</t>
+  </si>
+  <si>
+    <t>DIFFUSION SPECTROSCOPY AND IMAGING IN ACUTE STROKE</t>
+  </si>
+  <si>
+    <t>Phase II Open Label Study Using Triheptanoin in Patients With Glucose Type 1 Transporter Deficiency GLUT1-DS</t>
+  </si>
+  <si>
     <t>Decoding Presymptomatic White Matter Changes in Huntington Disease</t>
   </si>
   <si>
-    <t>Phase II Open Label Study Using Triheptanoin in Patients With Glucose Type 1 Transporter Deficiency GLUT1-DS</t>
-  </si>
-  <si>
-    <t>Phase Ia/Ib, Randomized, Double Blinded, Dose Escalation Trial to Evaluate the Safety and Immunogenicity in Healthy European and Burkinabe Adults of a Placental Malaria Vaccine Candidate (PRIMVAC) Formulated With Alhydrogel ® or GLA-SE</t>
-  </si>
-  <si>
-    <t>NEw approacheS for The dIagnosis of AlzeiMer's diseAse Through neuroElectrical Changes in the Brain</t>
-  </si>
-  <si>
-    <t>DIFFUSION SPECTROSCOPY AND IMAGING IN ACUTE STROKE</t>
-  </si>
-  <si>
-    <t>A Comparative Phase 2 Study Assessing the Efficacy of Triheptanoin, an Anaplerotic Therapy in Huntington's Disease</t>
-  </si>
-  <si>
-    <t>Retablissement Du Microbiote Naturel Apres Naissance Par Cesarienne</t>
+    <t>Energy Expenditure and Brown Adipose Tissue in Amyotrophic Lateral Sclerosis</t>
   </si>
   <si>
     <t>Effets du Tabagisme in Utero Sur la fonctionnalité de l'épithelium Respiratoire et Sur la Fonction Ventilatoire du Nouveau-né.</t>
   </si>
   <si>
-    <t>Energy Expenditure and Brown Adipose Tissue in Amyotrophic Lateral Sclerosis</t>
+    <t>Relationship Between Endogenous CETP Activity and Atherosclerosis Distribution in Patients With High Cardiovascular Risk</t>
+  </si>
+  <si>
+    <t>Effects of Deep Brain Stimulation of the Mesencephalic Locomotor Region on Gait and Balance Disorders in Parkinson's Disease Patients : a Randomized, Double-blind, Cross-over Study</t>
+  </si>
+  <si>
+    <t>Mise au Point de Protocoles RMN Sur l'Imageur Philips 3T installé Sur le Site du Pavillon Baudot du CHU Purpan à Toulouse</t>
   </si>
   <si>
     <t>Cause and Consequence of Neural Fatigue</t>
   </si>
   <si>
-    <t>Relationship Between Endogenous CETP Activity and Atherosclerosis Distribution in Patients With High Cardiovascular Risk</t>
-  </si>
-  <si>
-    <t>Effects of Deep Brain Stimulation of the Mesencephalic Locomotor Region on Gait and Balance Disorders in Parkinson's Disease Patients : a Randomized, Double-blind, Cross-over Study</t>
-  </si>
-  <si>
-    <t>Mise au Point de Protocoles RMN Sur l'Imageur Philips 3T installé Sur le Site du Pavillon Baudot du CHU Purpan à Toulouse</t>
-  </si>
-  <si>
     <t>Séroprévalence Des IgG dirigés Contre le SARS-CoV-2 Chez Les Professionnels de santé en Soins Primaires et Leurs Contacts au Sein Des ménages</t>
   </si>
   <si>
+    <t>Organisation du Cortex préfrontal ventrolatéral Pour l'Analogie: Approche Bimodale Chez le Sujet Sain et Chez le Patient Ayant un Syndrome Frontal.</t>
+  </si>
+  <si>
     <t>Investigation of Treatment Using the MyoRegulator® Device in Patients With Spasticity in the Lower Limb Due to Stroke</t>
   </si>
   <si>
-    <t>Organisation du Cortex préfrontal ventrolatéral Pour l'Analogie: Approche Bimodale Chez le Sujet Sain et Chez le Patient Ayant un Syndrome Frontal.</t>
+    <t>Microbiota and Bone Fragility: Study of the Relation Between Gut Microbiota and Bone Microarchitecture (Microbone)</t>
   </si>
   <si>
     <t>Efficiency in Population of Influenza Vaccination for Flu Prevention of the Hospitalized Adults</t>
   </si>
   <si>
-    <t>Microbiota and Bone Fragility: Study of the Relation Between Gut Microbiota and Bone Microarchitecture (Microbone)</t>
-  </si>
-  <si>
     <t>Impact of a School- and Primary Care-based Multicomponent Intervention on HPV Vaccination Acceptability Among French Adolescents: a Cluster Randomized Controlled Trial</t>
   </si>
   <si>
@@ -644,22 +644,26 @@
     <t>Multi-centre, Adaptive, Randomized Trial of the Safety and Efficacy of Treatments of COVID-19 in Hospitalized Adults</t>
   </si>
   <si>
+    <t>Kit de Pharmacologie Spatial - Analyse de l'Utilisation Des Dried Blood Spot Pour le Dosage de la caféine Chez Des Volontaires Sains en microgravité au Cours Des Vols Paraboliques</t>
+  </si>
+  <si>
     <t>Characterization of New Candidate Genes in Cases of Human Inherited Thrombocytopenia (CATCH). Molecular Etiologies in Cases of Thrombocytopenia</t>
   </si>
   <si>
+    <t>Integrated Silicon Photonics for Cardiovascular Disease Monitoring InSiDe-CC Clinical Validation of the Diagnostic Device (LDV) for the Measurement of Heart-carotid Pulse Wave Velocity (PWV) by Magnetic Resonance Imaging (MRI)</t>
+  </si>
+  <si>
+    <t>Characterization of Intra-osseous Vascular Response With Ultrasound Imaging on Healthy Volunteers</t>
+  </si>
+  <si>
     <t>Assessment of Apathy in a Real-life Situation, With a Video and Sensors-based System in Healthy Subject and Patient With Cerebral Disease</t>
   </si>
   <si>
-    <t>Integrated Silicon Photonics for Cardiovascular Disease Monitoring InSiDe-CC Clinical Validation of the Diagnostic Device (LDV) for the Measurement of Heart-carotid Pulse Wave Velocity (PWV) by Magnetic Resonance Imaging (MRI)</t>
-  </si>
-  <si>
-    <t>Kit de Pharmacologie Spatial - Analyse de l'Utilisation Des Dried Blood Spot Pour le Dosage de la caféine Chez Des Volontaires Sains en microgravité au Cours Des Vols Paraboliques</t>
-  </si>
-  <si>
-    <t>Characterization of Intra-osseous Vascular Response With Ultrasound Imaging on Healthy Volunteers</t>
-  </si>
-  <si>
     <t>Evaluation of the Effect of Artesunate in Friedreich Ataxia (FA) Phase I-II Efficacy-Toxicity of Artesunate in Friedreich Ataxia</t>
+  </si>
+  <si>
+    <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex with Men using oral TDF/FTC for HIV Pre-Exposure Prophylaxis (PrEP) 
+ Prévention combinée des infections sexuellement transmissibles (IST) chez les hommes ayant des rapports sexuels avec des hommes utilisant le TDF/FTC par voie orale pour la prophylaxie préexposition au VIH (PrEP)</t>
   </si>
   <si>
     <t>A phase II trial assessing immunogenicity and safety of COVID-19 mRNA Vaccine BNT162b2 in adult volunteers with no history of SARS CoV-2 infection administered with two doses of vaccine (D1-D29) and in adult volunteers with documented history of SARS CoV-2 infection (of more than 6 months) administered with only one dose of vaccine 
@@ -673,212 +677,208 @@
     <t>Immunothérapie par vaccination anti-rougeoleuse chez l'adulte atteint de dermatite atopique</t>
   </si>
   <si>
-    <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex with Men using oral TDF/FTC for HIV Pre-Exposure Prophylaxis (PrEP) 
- Prévention combinée des infections sexuellement transmissibles (IST) chez les hommes ayant des rapports sexuels avec des hommes utilisant le TDF/FTC par voie orale pour la prophylaxie préexposition au VIH (PrEP)</t>
-  </si>
-  <si>
     <t>RBM99026</t>
   </si>
   <si>
+    <t>PREFLUVAC</t>
+  </si>
+  <si>
     <t>Transfluvac</t>
   </si>
   <si>
-    <t>PREFLUVAC</t>
+    <t>MOMIC</t>
   </si>
   <si>
     <t>CIME1</t>
   </si>
   <si>
-    <t>MOMIC</t>
-  </si>
-  <si>
     <t>CURHEP</t>
   </si>
   <si>
+    <t>IDA-Adult</t>
+  </si>
+  <si>
     <t>TOC TOC</t>
   </si>
   <si>
-    <t>IDA-Adult</t>
-  </si>
-  <si>
     <t>PRO-MH</t>
   </si>
   <si>
     <t>PRADO</t>
   </si>
   <si>
+    <t>TRIHEP2</t>
+  </si>
+  <si>
+    <t>ELECTRE</t>
+  </si>
+  <si>
     <t>GLUCIMAG</t>
   </si>
   <si>
-    <t>TRIHEP2</t>
-  </si>
-  <si>
-    <t>ELECTRE</t>
+    <t>MBBCitalopram</t>
   </si>
   <si>
     <t>BYE BYE DOPA</t>
   </si>
   <si>
-    <t>MBBCitalopram</t>
-  </si>
-  <si>
     <t>MOUVADOC</t>
   </si>
   <si>
     <t>INSTIN</t>
   </si>
   <si>
+    <t>AMA1-DiCo</t>
+  </si>
+  <si>
     <t>EGEVE</t>
   </si>
   <si>
     <t>PRALIMAP-INES</t>
   </si>
   <si>
+    <t>CERESMARCHE</t>
+  </si>
+  <si>
+    <t>PRO-MH2</t>
+  </si>
+  <si>
     <t>HDL-PP</t>
   </si>
   <si>
-    <t>CERESMARCHE</t>
-  </si>
-  <si>
-    <t>PRO-MH2</t>
-  </si>
-  <si>
-    <t>AMA1-DiCo</t>
+    <t>GAMMA</t>
+  </si>
+  <si>
+    <t>MOMIC2</t>
+  </si>
+  <si>
+    <t>OrthoCT1</t>
+  </si>
+  <si>
+    <t>MBBAnalgesic</t>
+  </si>
+  <si>
+    <t>MULTIBRAIN_1</t>
+  </si>
+  <si>
+    <t>PNEUMOVACB</t>
+  </si>
+  <si>
+    <t>MINDED</t>
+  </si>
+  <si>
+    <t>MultiPAMS</t>
   </si>
   <si>
     <t>COGICRehab</t>
   </si>
   <si>
-    <t>PNEUMOVACB</t>
-  </si>
-  <si>
-    <t>GAMMA</t>
-  </si>
-  <si>
-    <t>MOMIC2</t>
-  </si>
-  <si>
-    <t>MBBAnalgesic</t>
-  </si>
-  <si>
-    <t>MINDED</t>
-  </si>
-  <si>
-    <t>OrthoCT1</t>
-  </si>
-  <si>
-    <t>MULTIBRAIN_1</t>
-  </si>
-  <si>
-    <t>MultiPAMS</t>
+    <t>PROFIDYS</t>
+  </si>
+  <si>
+    <t>STOP</t>
+  </si>
+  <si>
+    <t>PARKGAME</t>
   </si>
   <si>
     <t>MULTIBRAIN_2</t>
   </si>
   <si>
-    <t>PROFIDYS</t>
-  </si>
-  <si>
-    <t>STOP</t>
-  </si>
-  <si>
     <t>HEMIHEP</t>
-  </si>
-  <si>
-    <t>PARKGAME</t>
-  </si>
-  <si>
-    <t>HCC-DPPIV</t>
-  </si>
-  <si>
-    <t>SPA-M</t>
   </si>
   <si>
     <t>ANRS SHS155 STIMAGO 
  ANRS SHS155 STIMAGO</t>
   </si>
   <si>
+    <t>RAPAMI</t>
+  </si>
+  <si>
+    <t>GLUCIMAG2</t>
+  </si>
+  <si>
+    <t>CERESTIM</t>
+  </si>
+  <si>
+    <t>COGIT</t>
+  </si>
+  <si>
+    <t>SPA-M</t>
+  </si>
+  <si>
     <t>DEPARRESTCLIN</t>
   </si>
   <si>
+    <t>SCD-WELL</t>
+  </si>
+  <si>
+    <t>ELECTRE2</t>
+  </si>
+  <si>
+    <t>E-COMPARED</t>
+  </si>
+  <si>
     <t>CARDIS-PWV</t>
   </si>
   <si>
-    <t>RAPAMI</t>
-  </si>
-  <si>
-    <t>SCD-WELL</t>
-  </si>
-  <si>
-    <t>COGIT</t>
-  </si>
-  <si>
-    <t>ELECTRE2</t>
-  </si>
-  <si>
     <t>FUSIMAGINE</t>
   </si>
   <si>
-    <t>CERESTIM</t>
-  </si>
-  <si>
-    <t>E-COMPARED</t>
-  </si>
-  <si>
-    <t>GLUCIMAG2</t>
+    <t>HCC-DPPIV</t>
+  </si>
+  <si>
+    <t>PRIMALVAC</t>
+  </si>
+  <si>
+    <t>ESTIMATE</t>
+  </si>
+  <si>
+    <t>TRIHEP3</t>
+  </si>
+  <si>
+    <t>RESTORE</t>
+  </si>
+  <si>
+    <t>ISIS</t>
+  </si>
+  <si>
+    <t>GLUT-HEP</t>
   </si>
   <si>
     <t>Win-HD</t>
   </si>
   <si>
-    <t>GLUT-HEP</t>
-  </si>
-  <si>
-    <t>PRIMALVAC</t>
-  </si>
-  <si>
-    <t>ESTIMATE</t>
-  </si>
-  <si>
-    <t>ISIS</t>
-  </si>
-  <si>
-    <t>TRIHEP3</t>
-  </si>
-  <si>
-    <t>RESTORE</t>
-  </si>
-  <si>
     <t>BATALS</t>
   </si>
   <si>
+    <t>CETP-ATHERO</t>
+  </si>
+  <si>
+    <t>GAITPARK</t>
+  </si>
+  <si>
+    <t>(MISAP)</t>
+  </si>
+  <si>
     <t>Fatstim</t>
   </si>
   <si>
-    <t>CETP-ATHERO</t>
-  </si>
-  <si>
-    <t>GAITPARK</t>
-  </si>
-  <si>
-    <t>(MISAP)</t>
-  </si>
-  <si>
     <t>COVID-SeroPRIM</t>
   </si>
   <si>
+    <t>ANALOG</t>
+  </si>
+  <si>
     <t>SPAST</t>
   </si>
   <si>
-    <t>ANALOG</t>
+    <t>MICROBONE</t>
   </si>
   <si>
     <t>FLUVAC EV-03</t>
   </si>
   <si>
-    <t>MICROBONE</t>
-  </si>
-  <si>
     <t>PrevHPV</t>
   </si>
   <si>
@@ -888,19 +888,22 @@
     <t>DisCoVeRy</t>
   </si>
   <si>
+    <t>PSK</t>
+  </si>
+  <si>
     <t>CATCH</t>
   </si>
   <si>
+    <t>InSide-CC</t>
+  </si>
+  <si>
     <t>ECOCAPTURE</t>
   </si>
   <si>
-    <t>InSide-CC</t>
-  </si>
-  <si>
-    <t>PSK</t>
-  </si>
-  <si>
     <t>ARTEMIS</t>
+  </si>
+  <si>
+    <t>Doxyvac</t>
   </si>
   <si>
     <t>NA</t>
@@ -913,19 +916,16 @@
     <t>Protocole IDA</t>
   </si>
   <si>
-    <t>Doxyvac</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>BIOLOGICAL</t>
   </si>
   <si>
+    <t>BEHAVIORAL</t>
+  </si>
+  <si>
     <t>DEVICE</t>
-  </si>
-  <si>
-    <t>BEHAVIORAL</t>
   </si>
   <si>
     <t>OTHER</t>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1461,10 +1461,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1502,7 +1502,7 @@
         <v>222</v>
       </c>
       <c r="I9" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1525,7 +1525,7 @@
         <v>223</v>
       </c>
       <c r="I10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1568,7 +1568,7 @@
         <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1591,7 +1591,7 @@
         <v>225</v>
       </c>
       <c r="I13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1610,11 +1610,8 @@
       <c r="G14" t="s">
         <v>140</v>
       </c>
-      <c r="H14" t="s">
-        <v>226</v>
-      </c>
       <c r="I14" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1633,6 +1630,9 @@
       <c r="G15" t="s">
         <v>141</v>
       </c>
+      <c r="H15" t="s">
+        <v>226</v>
+      </c>
       <c r="I15" t="s">
         <v>300</v>
       </c>
@@ -1662,10 +1662,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1676,16 +1676,19 @@
       <c r="G17" t="s">
         <v>143</v>
       </c>
+      <c r="H17" t="s">
+        <v>228</v>
+      </c>
       <c r="I17" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1693,14 +1696,11 @@
       <c r="F18" t="s">
         <v>116</v>
       </c>
-      <c r="G18" t="s">
-        <v>144</v>
-      </c>
       <c r="H18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1717,21 +1717,21 @@
         <v>116</v>
       </c>
       <c r="G19" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I19" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1739,8 +1739,8 @@
       <c r="F20" t="s">
         <v>116</v>
       </c>
-      <c r="H20" t="s">
-        <v>230</v>
+      <c r="G20" t="s">
+        <v>145</v>
       </c>
       <c r="I20" t="s">
         <v>298</v>
@@ -1766,7 +1766,7 @@
         <v>231</v>
       </c>
       <c r="I21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1791,10 +1791,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -1809,15 +1809,15 @@
         <v>232</v>
       </c>
       <c r="I23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>39</v>
@@ -1832,7 +1832,7 @@
         <v>233</v>
       </c>
       <c r="I24" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1855,15 +1855,15 @@
         <v>234</v>
       </c>
       <c r="I25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>41</v>
@@ -1874,16 +1874,19 @@
       <c r="G26" t="s">
         <v>151</v>
       </c>
+      <c r="H26" t="s">
+        <v>235</v>
+      </c>
       <c r="I26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>42</v>
@@ -1895,7 +1898,7 @@
         <v>152</v>
       </c>
       <c r="H27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I27" t="s">
         <v>299</v>
@@ -1918,7 +1921,7 @@
         <v>153</v>
       </c>
       <c r="H28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I28" t="s">
         <v>302</v>
@@ -1926,10 +1929,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>44</v>
@@ -1940,19 +1943,16 @@
       <c r="G29" t="s">
         <v>154</v>
       </c>
-      <c r="H29" t="s">
-        <v>237</v>
-      </c>
       <c r="I29" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>45</v>
@@ -1967,7 +1967,7 @@
         <v>238</v>
       </c>
       <c r="I30" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2018,10 +2018,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -2036,7 +2036,7 @@
         <v>241</v>
       </c>
       <c r="I33" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2059,7 +2059,7 @@
         <v>242</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2082,7 +2082,7 @@
         <v>243</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2105,7 +2105,7 @@
         <v>244</v>
       </c>
       <c r="I36" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2124,9 +2124,6 @@
       <c r="G37" t="s">
         <v>162</v>
       </c>
-      <c r="H37" t="s">
-        <v>245</v>
-      </c>
       <c r="I37" t="s">
         <v>302</v>
       </c>
@@ -2148,7 +2145,7 @@
         <v>163</v>
       </c>
       <c r="H38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I38" t="s">
         <v>298</v>
@@ -2170,8 +2167,11 @@
       <c r="G39" t="s">
         <v>164</v>
       </c>
+      <c r="H39" t="s">
+        <v>246</v>
+      </c>
       <c r="I39" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2194,7 +2194,7 @@
         <v>247</v>
       </c>
       <c r="I40" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2213,11 +2213,8 @@
       <c r="G41" t="s">
         <v>166</v>
       </c>
-      <c r="H41" t="s">
-        <v>248</v>
-      </c>
       <c r="I41" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2236,8 +2233,11 @@
       <c r="G42" t="s">
         <v>167</v>
       </c>
+      <c r="H42" t="s">
+        <v>248</v>
+      </c>
       <c r="I42" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2260,7 +2260,7 @@
         <v>249</v>
       </c>
       <c r="I43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2283,7 +2283,7 @@
         <v>250</v>
       </c>
       <c r="I44" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2300,13 +2300,13 @@
         <v>120</v>
       </c>
       <c r="G45" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H45" t="s">
         <v>251</v>
       </c>
       <c r="I45" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2323,21 +2323,21 @@
         <v>120</v>
       </c>
       <c r="G46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H46" t="s">
         <v>252</v>
       </c>
       <c r="I46" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
         <v>62</v>
@@ -2346,21 +2346,21 @@
         <v>120</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H47" t="s">
         <v>253</v>
       </c>
       <c r="I47" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -2369,13 +2369,13 @@
         <v>120</v>
       </c>
       <c r="G48" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="H48" t="s">
         <v>254</v>
       </c>
       <c r="I48" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2398,18 +2398,18 @@
         <v>255</v>
       </c>
       <c r="I49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s">
-        <v>65</v>
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
       </c>
       <c r="F50" t="s">
         <v>121</v>
@@ -2420,9 +2420,6 @@
       <c r="H50" t="s">
         <v>256</v>
       </c>
-      <c r="I50" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
@@ -2432,7 +2429,7 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F51" t="s">
         <v>121</v>
@@ -2444,18 +2441,18 @@
         <v>257</v>
       </c>
       <c r="I51" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" t="s">
-        <v>104</v>
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>66</v>
       </c>
       <c r="F52" t="s">
         <v>121</v>
@@ -2466,6 +2463,9 @@
       <c r="H52" t="s">
         <v>258</v>
       </c>
+      <c r="I52" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
@@ -2487,7 +2487,7 @@
         <v>259</v>
       </c>
       <c r="I53" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2510,7 +2510,7 @@
         <v>260</v>
       </c>
       <c r="I54" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2533,15 +2533,15 @@
         <v>261</v>
       </c>
       <c r="I55" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>70</v>
@@ -2556,15 +2556,15 @@
         <v>262</v>
       </c>
       <c r="I56" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
@@ -2579,7 +2579,7 @@
         <v>263</v>
       </c>
       <c r="I57" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2602,15 +2602,15 @@
         <v>264</v>
       </c>
       <c r="I58" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C59" t="s">
         <v>73</v>
@@ -2625,7 +2625,7 @@
         <v>265</v>
       </c>
       <c r="I59" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2648,15 +2648,15 @@
         <v>266</v>
       </c>
       <c r="I60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>75</v>
@@ -2671,7 +2671,7 @@
         <v>267</v>
       </c>
       <c r="I61" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2694,18 +2694,18 @@
         <v>268</v>
       </c>
       <c r="I62" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>105</v>
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
       </c>
       <c r="F63" t="s">
         <v>122</v>
@@ -2713,6 +2713,12 @@
       <c r="G63" t="s">
         <v>187</v>
       </c>
+      <c r="H63" t="s">
+        <v>269</v>
+      </c>
+      <c r="I63" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
@@ -2722,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
         <v>122</v>
@@ -2731,7 +2737,7 @@
         <v>188</v>
       </c>
       <c r="H64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I64" t="s">
         <v>301</v>
@@ -2745,7 +2751,7 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F65" t="s">
         <v>122</v>
@@ -2754,7 +2760,7 @@
         <v>189</v>
       </c>
       <c r="H65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I65" t="s">
         <v>298</v>
@@ -2762,13 +2768,13 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" t="s">
-        <v>79</v>
+        <v>14</v>
+      </c>
+      <c r="D66" t="s">
+        <v>105</v>
       </c>
       <c r="F66" t="s">
         <v>122</v>
@@ -2776,12 +2782,6 @@
       <c r="G66" t="s">
         <v>190</v>
       </c>
-      <c r="H66" t="s">
-        <v>271</v>
-      </c>
-      <c r="I66" t="s">
-        <v>299</v>
-      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
@@ -2803,7 +2803,7 @@
         <v>272</v>
       </c>
       <c r="I67" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2826,7 +2826,7 @@
         <v>273</v>
       </c>
       <c r="I68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2872,7 +2872,7 @@
         <v>275</v>
       </c>
       <c r="I70" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2891,8 +2891,11 @@
       <c r="G71" t="s">
         <v>195</v>
       </c>
+      <c r="H71" t="s">
+        <v>276</v>
+      </c>
       <c r="I71" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2911,11 +2914,8 @@
       <c r="G72" t="s">
         <v>196</v>
       </c>
-      <c r="H72" t="s">
-        <v>276</v>
-      </c>
       <c r="I72" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2938,7 +2938,7 @@
         <v>277</v>
       </c>
       <c r="I73" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2961,7 +2961,7 @@
         <v>278</v>
       </c>
       <c r="I74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2984,7 +2984,7 @@
         <v>279</v>
       </c>
       <c r="I75" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3007,7 +3007,7 @@
         <v>280</v>
       </c>
       <c r="I76" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3099,7 +3099,7 @@
         <v>284</v>
       </c>
       <c r="I80" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3122,7 +3122,7 @@
         <v>285</v>
       </c>
       <c r="I81" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3219,10 +3219,10 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
@@ -3237,7 +3237,7 @@
         <v>290</v>
       </c>
       <c r="I86" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3279,19 +3279,16 @@
       <c r="G88" t="s">
         <v>212</v>
       </c>
-      <c r="H88" t="s">
-        <v>292</v>
-      </c>
       <c r="I88" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>102</v>
@@ -3302,6 +3299,9 @@
       <c r="G89" t="s">
         <v>213</v>
       </c>
+      <c r="H89" t="s">
+        <v>292</v>
+      </c>
       <c r="I89" t="s">
         <v>300</v>
       </c>
@@ -3365,10 +3365,10 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93" t="s">
         <v>108</v>
@@ -3382,10 +3382,10 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
         <v>109</v>

--- a/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
+++ b/publipostage2/02vjkv261/liste_essais_cliniques_identifies_02vjkv261.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="408">
   <si>
     <t>statut</t>
   </si>
@@ -43,36 +43,36 @@
     <t>intervention_type</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>NCT00988767</t>
   </si>
   <si>
     <t>NCT00545194</t>
   </si>
   <si>
-    <t>NCT00988767</t>
-  </si>
-  <si>
     <t>NCT00272428</t>
   </si>
   <si>
@@ -82,124 +82,160 @@
     <t>NCT00339157</t>
   </si>
   <si>
+    <t>NCT01086904</t>
+  </si>
+  <si>
+    <t>NCT01063608</t>
+  </si>
+  <si>
     <t>NCT01024400</t>
   </si>
   <si>
-    <t>NCT01086904</t>
+    <t>NCT01188525</t>
   </si>
   <si>
     <t>NCT01075061</t>
   </si>
   <si>
-    <t>NCT01188525</t>
+    <t>NCT01207336</t>
+  </si>
+  <si>
+    <t>NCT01531036</t>
+  </si>
+  <si>
+    <t>NCT01605578</t>
+  </si>
+  <si>
+    <t>NCT00463983</t>
+  </si>
+  <si>
+    <t>NCT01272154</t>
   </si>
   <si>
     <t>NCT01489592</t>
   </si>
   <si>
+    <t>NCT01359774</t>
+  </si>
+  <si>
+    <t>NCT01331876</t>
+  </si>
+  <si>
+    <t>NCT06878768</t>
+  </si>
+  <si>
+    <t>NCT00820820</t>
+  </si>
+  <si>
     <t>NCT01548586</t>
   </si>
   <si>
-    <t>NCT00820820</t>
-  </si>
-  <si>
-    <t>NCT01531036</t>
-  </si>
-  <si>
-    <t>NCT01331876</t>
-  </si>
-  <si>
-    <t>NCT01359774</t>
+    <t>NCT01552044</t>
   </si>
   <si>
     <t>NCT01555450</t>
   </si>
   <si>
+    <t>NCT01605565</t>
+  </si>
+  <si>
     <t>NCT01882062</t>
   </si>
   <si>
+    <t>NCT01493934</t>
+  </si>
+  <si>
+    <t>NCT01764152</t>
+  </si>
+  <si>
     <t>NCT01579435</t>
   </si>
   <si>
-    <t>NCT01552044</t>
-  </si>
-  <si>
-    <t>NCT01493934</t>
-  </si>
-  <si>
     <t>NCT01094899</t>
   </si>
   <si>
+    <t>NCT01432821</t>
+  </si>
+  <si>
+    <t>NCT01495897</t>
+  </si>
+  <si>
     <t>NCT02113943</t>
   </si>
   <si>
-    <t>NCT01432821</t>
-  </si>
-  <si>
-    <t>NCT01495897</t>
+    <t>NCT02976298</t>
+  </si>
+  <si>
+    <t>NCT01960751</t>
+  </si>
+  <si>
+    <t>NCT01688453</t>
+  </si>
+  <si>
+    <t>NCT01696708</t>
+  </si>
+  <si>
+    <t>NCT02145832</t>
+  </si>
+  <si>
+    <t>NCT03109067</t>
   </si>
   <si>
     <t>NCT01089387</t>
   </si>
   <si>
+    <t>NCT01490489</t>
+  </si>
+  <si>
     <t>NCT02014727</t>
   </si>
   <si>
-    <t>NCT01490489</t>
-  </si>
-  <si>
     <t>NCT02078076</t>
   </si>
   <si>
-    <t>NCT01688453</t>
-  </si>
-  <si>
-    <t>NCT02976298</t>
-  </si>
-  <si>
-    <t>NCT01696708</t>
-  </si>
-  <si>
-    <t>NCT03109067</t>
+    <t>NCT02172677</t>
+  </si>
+  <si>
+    <t>NCT02267304</t>
   </si>
   <si>
     <t>NCT02073630</t>
   </si>
   <si>
+    <t>NCT01508494</t>
+  </si>
+  <si>
+    <t>NCT02428816</t>
+  </si>
+  <si>
+    <t>NCT02101398</t>
+  </si>
+  <si>
+    <t>NCT01842477</t>
+  </si>
+  <si>
+    <t>NCT01569399</t>
+  </si>
+  <si>
+    <t>NCT02082171</t>
+  </si>
+  <si>
     <t>NCT02073604</t>
   </si>
   <si>
-    <t>NCT01842477</t>
-  </si>
-  <si>
-    <t>NCT01569399</t>
-  </si>
-  <si>
-    <t>NCT02267304</t>
-  </si>
-  <si>
-    <t>NCT02172677</t>
-  </si>
-  <si>
     <t>NCT02126384</t>
   </si>
   <si>
-    <t>NCT02101398</t>
-  </si>
-  <si>
-    <t>NCT02082171</t>
-  </si>
-  <si>
-    <t>NCT02428816</t>
-  </si>
-  <si>
-    <t>NCT01508494</t>
+    <t>NCT02978924</t>
+  </si>
+  <si>
+    <t>NCT02919631</t>
   </si>
   <si>
     <t>NCT00445575</t>
   </si>
   <si>
-    <t>NCT02978924</t>
+    <t>NCT02408354</t>
   </si>
   <si>
     <t>NCT02469350</t>
@@ -208,82 +244,100 @@
     <t>NCT02542800</t>
   </si>
   <si>
-    <t>NCT02408354</t>
+    <t>NCT02314208</t>
+  </si>
+  <si>
+    <t>NCT02051413</t>
+  </si>
+  <si>
+    <t>NCT02656407</t>
+  </si>
+  <si>
+    <t>NCT02052271</t>
+  </si>
+  <si>
+    <t>NCT02542891</t>
+  </si>
+  <si>
+    <t>NCT02650427</t>
   </si>
   <si>
     <t>NCT02481453</t>
   </si>
   <si>
+    <t>NCT02960698</t>
+  </si>
+  <si>
     <t>NCT02102737</t>
   </si>
   <si>
     <t>NCT02346409</t>
   </si>
   <si>
-    <t>NCT02960698</t>
-  </si>
-  <si>
-    <t>NCT02314208</t>
-  </si>
-  <si>
-    <t>NCT02051413</t>
+    <t>NCT03446430</t>
   </si>
   <si>
     <t>NCT03005652</t>
   </si>
   <si>
-    <t>NCT02052271</t>
-  </si>
-  <si>
-    <t>NCT02542891</t>
-  </si>
-  <si>
-    <t>NCT03446430</t>
-  </si>
-  <si>
-    <t>NCT02656407</t>
-  </si>
-  <si>
-    <t>NCT02650427</t>
+    <t>NCT01880151</t>
+  </si>
+  <si>
+    <t>NCT02567071</t>
+  </si>
+  <si>
+    <t>NCT01985139</t>
+  </si>
+  <si>
+    <t>NCT02800460</t>
+  </si>
+  <si>
+    <t>NCT03047967</t>
+  </si>
+  <si>
+    <t>NCT06891612</t>
+  </si>
+  <si>
+    <t>NCT03150290</t>
+  </si>
+  <si>
+    <t>NCT03193099</t>
+  </si>
+  <si>
+    <t>NCT02453061</t>
   </si>
   <si>
     <t>NCT02658253</t>
   </si>
   <si>
-    <t>NCT01880151</t>
-  </si>
-  <si>
-    <t>NCT02453061</t>
-  </si>
-  <si>
-    <t>NCT02567071</t>
-  </si>
-  <si>
     <t>NCT02833961</t>
   </si>
   <si>
     <t>NCT02014883</t>
   </si>
   <si>
-    <t>NCT03193099</t>
-  </si>
-  <si>
-    <t>NCT03150290</t>
-  </si>
-  <si>
-    <t>NCT03047967</t>
+    <t>NCT02721745</t>
   </si>
   <si>
     <t>NCT02081066</t>
   </si>
   <si>
+    <t>NCT06809881</t>
+  </si>
+  <si>
+    <t>NCT05090956</t>
+  </si>
+  <si>
+    <t>NCT03339817</t>
+  </si>
+  <si>
     <t>NCT02931097</t>
   </si>
   <si>
-    <t>NCT05090956</t>
-  </si>
-  <si>
-    <t>NCT02721745</t>
+    <t>NCT02109302</t>
+  </si>
+  <si>
+    <t>NCT03739892</t>
   </si>
   <si>
     <t>NCT04808986</t>
@@ -292,48 +346,150 @@
     <t>NCT02236832</t>
   </si>
   <si>
+    <t>NCT03942445</t>
+  </si>
+  <si>
+    <t>NCT02429492</t>
+  </si>
+  <si>
     <t>NCT04780191</t>
   </si>
   <si>
     <t>NCT04265742</t>
   </si>
   <si>
+    <t>NCT03741140</t>
+  </si>
+  <si>
+    <t>NCT01801709</t>
+  </si>
+  <si>
     <t>NCT02027233</t>
   </si>
   <si>
+    <t>NCT04315948</t>
+  </si>
+  <si>
+    <t>NCT04484740</t>
+  </si>
+  <si>
+    <t>NCT02977819</t>
+  </si>
+  <si>
     <t>NCT04945655</t>
   </si>
   <si>
-    <t>NCT04484740</t>
-  </si>
-  <si>
-    <t>NCT04315948</t>
-  </si>
-  <si>
     <t>NCT06431984</t>
   </si>
   <si>
+    <t>NCT04396288</t>
+  </si>
+  <si>
+    <t>NCT05711693</t>
+  </si>
+  <si>
+    <t>NCT04921930</t>
+  </si>
+  <si>
+    <t>NCT03481491</t>
+  </si>
+  <si>
+    <t>NCT03272230</t>
+  </si>
+  <si>
     <t>NCT04272970</t>
   </si>
   <si>
-    <t>NCT05711693</t>
-  </si>
-  <si>
-    <t>NCT04396288</t>
-  </si>
-  <si>
-    <t>NCT03272230</t>
-  </si>
-  <si>
-    <t>NCT04921930</t>
-  </si>
-  <si>
-    <t>2013-002996-16</t>
+    <t>NCT03825601</t>
+  </si>
+  <si>
+    <t>2009-016659-23</t>
+  </si>
+  <si>
+    <t>2009-016267-11</t>
+  </si>
+  <si>
+    <t>2009-016660-36</t>
+  </si>
+  <si>
+    <t>2008-008369-37</t>
+  </si>
+  <si>
+    <t>2009-014866-24</t>
+  </si>
+  <si>
+    <t>2011-001925-26</t>
+  </si>
+  <si>
+    <t>2007-007267-25</t>
+  </si>
+  <si>
+    <t>2011-003046-40</t>
+  </si>
+  <si>
+    <t>2009-014658-14</t>
+  </si>
+  <si>
+    <t>2013-003496-35</t>
+  </si>
+  <si>
+    <t>2012-001916-41</t>
+  </si>
+  <si>
+    <t>2013-001920-20</t>
+  </si>
+  <si>
+    <t>2013-003487-31</t>
+  </si>
+  <si>
+    <t>2010-024313-32</t>
+  </si>
+  <si>
+    <t>2011-005441-13</t>
+  </si>
+  <si>
+    <t>2013-000850-23</t>
+  </si>
+  <si>
+    <t>2013-004326-29</t>
+  </si>
+  <si>
+    <t>2015-002968-17</t>
+  </si>
+  <si>
+    <t>2013-003485-14</t>
+  </si>
+  <si>
+    <t>2013-003526-92</t>
+  </si>
+  <si>
+    <t>2015-002246-31</t>
   </si>
   <si>
     <t>2014-005112-42</t>
   </si>
   <si>
+    <t>2011-004410-42</t>
+  </si>
+  <si>
+    <t>2020-000936-23</t>
+  </si>
+  <si>
+    <t>2019-004308-37</t>
+  </si>
+  <si>
+    <t>2021-000171-36</t>
+  </si>
+  <si>
+    <t>2020-005888-31</t>
+  </si>
+  <si>
+    <t>2009-015100-25</t>
+  </si>
+  <si>
+    <t>2019-001961-34</t>
+  </si>
+  <si>
     <t>2019-002829-29</t>
   </si>
   <si>
@@ -343,9 +499,6 @@
     <t>2017-000040-17</t>
   </si>
   <si>
-    <t>2007-007267-25</t>
-  </si>
-  <si>
     <t>2004</t>
   </si>
   <si>
@@ -400,12 +553,12 @@
     <t>2024</t>
   </si>
   <si>
+    <t>Specific Vaccine Therapy in Chronic Hepatitis B Using a Naked DNA: Phase I Study Using a GMO</t>
+  </si>
+  <si>
     <t>Randomized Study on Removable PGE2 Vaginal Insert Versus PGE2 Intravaginal Gel for Cervical Priming and Labour Induction in Term Pregnancy</t>
   </si>
   <si>
-    <t>Specific Vaccine Therapy in Chronic Hepatitis B Using a Naked DNA: Phase I Study Using a GMO</t>
-  </si>
-  <si>
     <t>The SU.VI.MAX Study. A Randomized, Placebo-controlled Prevention Trial of the Health Effects of Antioxidant Vitamins and Minerals.</t>
   </si>
   <si>
@@ -415,209 +568,259 @@
     <t>ANAkinra in Severe Juvenile Idiopathic Arthritis of Systemic Onset (ANAJIS)</t>
   </si>
   <si>
+    <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A (H1N1) après Transplantation rénale</t>
+  </si>
+  <si>
+    <t>Study of Immune Responses After Vaccination Against Seasonal Influenza Virus and Against Influenza H1N1-v Pandemic Virus in a Clinical Staff (FLU-HOP)</t>
+  </si>
+  <si>
     <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A(H1N1)v Chez la Femme Enceinte</t>
   </si>
   <si>
-    <t>Etude de Phase II évaluant l'immunogénicité et la tolérance d'un Vaccin inactivé Non adjuvanté Contre la Grippe A (H1N1) après Transplantation rénale</t>
+    <t>Un placebo peut il améliorer l'apprentissage d'une habileté motrice manuelle du sujet sain? Comparaison avec la paroxétine.</t>
+  </si>
+  <si>
+    <t>Pharmacokinetic of Ten Parent Drugs and Their Metabolits in Order to Characterise Individual Metabolic Profile</t>
   </si>
   <si>
     <t>Study of a Large Family With Congenital Mirror Movements : From Underlying Pathophysiology to Culprit Gene Identification : MOMIC</t>
   </si>
   <si>
-    <t>Pharmacokinetic of Ten Parent Drugs and Their Metabolits in Order to Characterise Individual Metabolic Profile</t>
+    <t>Effect of Combined Anodal TDCS and Peripheral Nerve Stimulation on Motor Recovery in Acute Stroke</t>
+  </si>
+  <si>
+    <t>Imagerie 3D d'élasticité du Sein Par échographie Ultrarapide au Cours d'un Traitement Par chimiothérapie néoadjuvante.</t>
+  </si>
+  <si>
+    <t>Description Des Populations Cellulaires Des Tissus Adipeux Sous-cutanés Abdominaux Et Glutéo-fémoraux Chez La Femme.</t>
+  </si>
+  <si>
+    <t>Phase 2 Study of Long Acting Octreotide in Idiopathic Pulmonary Fibrosis</t>
+  </si>
+  <si>
+    <t>Cerebellum and Cortical Plasticity: the Case of Dystonia</t>
   </si>
   <si>
     <t>Effect of Curcumin on Iron Metabolism in Healthy Volunteer</t>
   </si>
   <si>
+    <t>31Phosphorus-Magnetic Resonance Spectroscopy and Huntington Disease</t>
+  </si>
+  <si>
+    <t>Evaluation and Comparison of Cerebral Activities Modifications Associated With Two Different Cognitive and Behavioral Therapies for Obsessive Compulsive Disorder Patients</t>
+  </si>
+  <si>
+    <t>Imagerie Cardiaque Ciné Par Résonance Magnétique En Respiration Libre</t>
+  </si>
+  <si>
+    <t>Immunotherapy of Atopic Dermatitis in Adult Patients by Anti-measles Vaccination IDA (Immunothérapie de la Dermatite Atopique)Protocol</t>
+  </si>
+  <si>
     <t>Modulation de l'excitabilité Des Aires Corticales Motrices Primaires Correspondant Aux hémi Diaphragmes à l'Aide de la tDCS (Transcranial Direct Current Stimulation)</t>
   </si>
   <si>
-    <t>Immunotherapy of Atopic Dermatitis in Adult Patients by Anti-measles Vaccination IDA (Immunothérapie de la Dermatite Atopique)Protocol</t>
-  </si>
-  <si>
-    <t>Imagerie 3D d'élasticité du Sein Par échographie Ultrarapide au Cours d'un Traitement Par chimiothérapie néoadjuvante.</t>
-  </si>
-  <si>
-    <t>Evaluation and Comparison of Cerebral Activities Modifications Associated With Two Different Cognitive and Behavioral Therapies for Obsessive Compulsive Disorder Patients</t>
-  </si>
-  <si>
-    <t>31Phosphorus-Magnetic Resonance Spectroscopy and Huntington Disease</t>
+    <t>Evaluation de la Spironolactone Dans le Traitement Des choriorétinites séreuses Centrales Non résolutives à Trois Mois</t>
   </si>
   <si>
     <t>The Patient Navigator to Reduce Social Inequalities. A French Interventional Trial in Public Health</t>
   </si>
   <si>
+    <t>Analyse Fonctionnelle Par Imagerie Dynamique De L'épithélium Respiratoire Chez Des Nourrissons Atteints De Mucoviscidose</t>
+  </si>
+  <si>
+    <t>Development of a Fast Measurement Technique of Insulin Resistance in Human, With 123-6-deoxy-6 Iodo-D-glucose, a New Tracer of Glucose Transport</t>
+  </si>
+  <si>
+    <t>Efficiency in Population of Influenza Vaccination for Seasonal 2012-2013 for Flu Prevention of the Hospitalized Adults: an Observational Study</t>
+  </si>
+  <si>
     <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Trans-crânienne Par Courant Direct (tDCS) du Cortex cérébelleux et du Cortex Moteur. Etude Exploratoire.</t>
   </si>
   <si>
-    <t>Evaluation de la Spironolactone Dans le Traitement Des choriorétinites séreuses Centrales Non résolutives à Trois Mois</t>
-  </si>
-  <si>
-    <t>Development of a Fast Measurement Technique of Insulin Resistance in Human, With 123-6-deoxy-6 Iodo-D-glucose, a New Tracer of Glucose Transport</t>
-  </si>
-  <si>
     <t>Study of Abnormal Structure and Bone Density at the Feet of Diabetic Patients</t>
   </si>
   <si>
+    <t>Dopaminergic Reactivity In Idiopathic Generalized Epilepsy: A "Proof Of Concept" Clinical, Pharmacological And Neurophysiological Study</t>
+  </si>
+  <si>
+    <t>Adaptation Sensorimotrice, Cervelet et Mouvements Anormaux: Projet d'étude Oculomotrice</t>
+  </si>
+  <si>
     <t>Etude Comparative Monocentrique, randomisée, en Cross-over, en Double Aveugle, Contre Placebo, de l'Action du Citalopram Sur Les paramètres Cognitifs de la Motivation</t>
   </si>
   <si>
-    <t>Dopaminergic Reactivity In Idiopathic Generalized Epilepsy: A "Proof Of Concept" Clinical, Pharmacological And Neurophysiological Study</t>
-  </si>
-  <si>
-    <t>Adaptation Sensorimotrice, Cervelet et Mouvements Anormaux: Projet d'étude Oculomotrice</t>
+    <t>Rôle du Cervelet et de l'Aire Motrice supplémentaire Dans le contrôle Postural au Cours de la Marche Chez l'Homme</t>
+  </si>
+  <si>
+    <t>Etude Des Séquelles Neurocognitives À Long Terme Des Faibles Doses De Radiation Chez 150 Patients Traités Par Radiothérapie Dans L'enfance Pour Un Hémangiome Cutané À L'Institut Gustave Roussy (IGR) Entre 1941 Et 1973</t>
+  </si>
+  <si>
+    <t>Reduction of Inequalities in Overweight and Obesity Management Care Access Among High School Adolescents</t>
+  </si>
+  <si>
+    <t>Study of the Brain Energy Profile Evolution, Using 31Phosphorus-Nuclear Magnetic Resonance Spectroscopy, at Different Stages of Huntington Disease</t>
+  </si>
+  <si>
+    <t>Fluconazole Versus Micafungin in Neonates with Suspected or Culture-proven Candidiasis: a Randomized Pharmacokinetic and Safety Study (TINN Project - Treat Infections in Neonates)</t>
+  </si>
+  <si>
+    <t>Influence of TaqIB (rs708272) Polymorphism in Cholesteryl Ester Transfer Protein (CETP) Gene on Functionality of HDL Particles, in the Pathway of Reverse Transport of Fasting and Post-prandial Cholesterol.</t>
   </si>
   <si>
     <t>Intracavernous Bone Marrow Stem-cell Injection for Post Prostatectomy Erectile Dysfunction</t>
   </si>
   <si>
+    <t>EG-VEGF (Endocrine Gland-derived Vascular Endothelial Growth Factor) in Normal and Pathological Pregnancies: Potential Marker of Pre-eclampsia and / or Intrauterine Growth Restriction</t>
+  </si>
+  <si>
     <t>Safety and Immunogenicity of Recombinant Pichia Pastoris AMA1-DiCo Candidate Malaria Vaccine With GLA-SE and Alhydrogel ® as Adjuvant in Healthy Malaria Non-Exposed European and Malaria Exposed African Adults:a Staggered Phase Ia/Ib, Randomised, Double-blind, Multi-Centre Trial</t>
   </si>
   <si>
-    <t>EG-VEGF (Endocrine Gland-derived Vascular Endothelial Growth Factor) in Normal and Pathological Pregnancies: Potential Marker of Pre-eclampsia and / or Intrauterine Growth Restriction</t>
-  </si>
-  <si>
     <t>IRM Cardiaque en Respiration Libre Pour Des Patients Atteints de Dystrophinopathie sévère</t>
   </si>
   <si>
-    <t>Reduction of Inequalities in Overweight and Obesity Management Care Access Among High School Adolescents</t>
-  </si>
-  <si>
-    <t>Rôle du Cervelet et de l'Aire Motrice supplémentaire Dans le contrôle Postural au Cours de la Marche Chez l'Homme</t>
-  </si>
-  <si>
-    <t>Study of the Brain Energy Profile Evolution, Using 31Phosphorus-Nuclear Magnetic Resonance Spectroscopy, at Different Stages of Huntington Disease</t>
-  </si>
-  <si>
-    <t>Influence of TaqIB (rs708272) Polymorphism in Cholesteryl Ester Transfer Protein (CETP) Gene on Functionality of HDL Particles, in the Pathway of Reverse Transport of Fasting and Post-prandial Cholesterol.</t>
+    <t>ETUDE D'IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE CHEZ LE SUJET SAIN DES RELATIONS ENTRE MEMOIRE COLLECTIVE ET INDIVIDUELLE</t>
+  </si>
+  <si>
+    <t>Etude Comparative Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, de l'Action de la Morphine et de la Naloxone Dans un modèle Cognitif de Gestion Des Efforts Physiques</t>
   </si>
   <si>
     <t>Contribution du Cervelet Dans l'Adaptation Sensori-motrice Via Les Oscillations Gamma : le Cas de la Dystonie</t>
   </si>
   <si>
+    <t>Evaluation de l'efficacité de la Galantamine Versus Placebo associée à Une Revalidation Neuropsychologique Chez Des Patients présentant un Trouble Cognitif après un Premier Infarctus cérébral : étude en Neuroimagerie Fonctionnelle</t>
+  </si>
+  <si>
+    <t>Evaluation and Validation of a Multimodal MRI Neuroimaging Method: Application to Differential Diagnosis and Disease Progression in Parkinsonian Syndromes</t>
+  </si>
+  <si>
+    <t>Etude de l'Effet de Stimulations transcrâniennes en Courant Continu (tDCS) Sur Les Performances en dénomination Chez le Sujet Aphasique à Moins d'un an de Son Accident Vasculaire cérébral : Comparaison de 5 Configurations de Stimulation</t>
+  </si>
+  <si>
+    <t>Evaluation of Efficacy and Safety of Autologous MSCs Combined to Biomaterials to Enhance Bone Healing in Patients with Delayed Consolidation After Long Bone Fracture Requiring Graft Apposition or Alternative Orthobiologics</t>
+  </si>
+  <si>
+    <t>Evaluation de l'efficacité thérapeutique de la Stimulation magnétique transcrânienne répétée Sur le Traitement du Craving à l'Alcool et la prévention de la Rechute Alcoolique à 6 Mois Chez Les Sujets dépendants et Des Facteurs génétiques déterminant la réponse thérapeutique</t>
+  </si>
+  <si>
+    <t>Multidomain Intervention to Prevent Disability in Elders</t>
+  </si>
+  <si>
     <t>Rôle de la SMA Dans la préparation Des Mouvements Uni et Bi-manuels: le Paradigme Des Mouvements en Miroir</t>
   </si>
   <si>
-    <t>Evaluation of Efficacy and Safety of Autologous MSCs Combined to Biomaterials to Enhance Bone Healing in Patients With Delayed Consolidation After Long Bone Fracture Requiring Graft Apposition or Alternative Orthobiologics</t>
-  </si>
-  <si>
-    <t>Evaluation de l'efficacité thérapeutique de la Stimulation magnétique transcrânienne répétée Sur le Traitement du Craving à l'Alcool et la prévention de la Rechute Alcoolique à 6 Mois Chez Les Sujets dépendants et Des Facteurs génétiques déterminant la réponse thérapeutique</t>
-  </si>
-  <si>
-    <t>Etude Comparative Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, de l'Action de la Morphine et de la Naloxone Dans un modèle Cognitif de Gestion Des Efforts Physiques</t>
-  </si>
-  <si>
-    <t>ETUDE D'IMAGERIE PAR RESONANCE MAGNETIQUE FONCTIONNELLE CHEZ LE SUJET SAIN DES RELATIONS ENTRE MEMOIRE COLLECTIVE ET INDIVIDUELLE</t>
-  </si>
-  <si>
     <t>Analysis of the Response of Healthy Adults to a 23-valent Pneumococcal Polysaccharide Vaccine to Identify the B Cell Subsets Responsible for the Production of IgM, IgG2 and IgA Anti-pneumococcal Capsular Polysaccharides</t>
   </si>
   <si>
-    <t>Etude de l'Effet de Stimulations transcrâniennes en Courant Continu (tDCS) Sur Les Performances en dénomination Chez le Sujet Aphasique à Moins d'un an de Son Accident Vasculaire cérébral : Comparaison de 5 Configurations de Stimulation</t>
-  </si>
-  <si>
-    <t>Multidomain Intervention to Prevent Disability in Elders</t>
-  </si>
-  <si>
-    <t>Evaluation and Validation of a Multimodal MRI Neuroimaging Method: Application to Differential Diagnosis and Disease Progression in Parkinsonian Syndromes</t>
-  </si>
-  <si>
-    <t>Evaluation de l'efficacité de la Galantamine Versus Placebo associée à Une Revalidation Neuropsychologique Chez Des Patients présentant un Trouble Cognitif après un Premier Infarctus cérébral : étude en Neuroimagerie Fonctionnelle</t>
+    <t>Trans-spinal Direct Current Stimulation in Primary Orthostatic Tremor</t>
+  </si>
+  <si>
+    <t>The Effect of Triheptanoin in Adults with Mc Ardle Disease (Glycogen Storage Disease Type V)</t>
   </si>
   <si>
     <t>Effect of Risedronate on Bone Morbidity in Fibrous Dysplasia of Bone</t>
   </si>
   <si>
-    <t>Trans-spinal Direct Current Stimulation in Primary Orthostatic Tremor</t>
+    <t>"Etude Pilote, Comparative, Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, Testant l'efficacité de l'Huile triheptanoïne Dans Les Hémiplégies Alternantes de l'Enfant" HEMIHEP</t>
   </si>
   <si>
     <t>Feasibility and Acceptability Study of Serious Game Rehabilitation Program in Parkinson's Disease Patients With Resistant Gait and Balance Disorders</t>
   </si>
   <si>
-    <t>"Etude Pilote, Comparative, Monocentrique, randomisée, en Cross Over, en Double Aveugle, Contre Placebo, Testant l'efficacité de l'Huile triheptanoïne Dans Les Hémiplégies Alternantes de l'Enfant" HEMIHEP</t>
-  </si>
-  <si>
-    <t>ANRS SHS155 STIMAGO: Pilote study to evaluate the benefits and the risks of methylphenidate for the treatment of cocain dependence._x000D_ 
- ANRS SHS155 STIMAGO : Etude pilote pour l’évaluation des bénéfices et des risques du méthylphénidate pour la prise en charge de la dépendance à la cocaïne.</t>
+    <t>Therapeutic Metabolic Intervention in Patients With Spastic Paraplegia SPG5</t>
+  </si>
+  <si>
+    <t>Beta-arrestins and Response to Venlafaxine in Major Depressive Disorder</t>
+  </si>
+  <si>
+    <t>Doppler Ultrasonore Ultrasensible Peropératoire du Cerveau - Vers Une Aide Temps Reel à la Cartographie Corticale Fonctionnelle</t>
+  </si>
+  <si>
+    <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Transcranienne Par Courant Direct (tDCS) du Cortex Cerebelleux</t>
+  </si>
+  <si>
+    <t>E-Compared: Comparative Effectiveness Research on Internet Based Depression Treatment- French Trial</t>
+  </si>
+  <si>
+    <t>A Pilot Study to Evaluate the Safety of a 3 Weeks Sitagliptin Treatment in HCC Patients Undergoing Liver Resection</t>
   </si>
   <si>
     <t>Étude de l'Effet de la Rapamycine Sur la Force Musculaire et la réponse Immunitaire au Cours de la Myosite à Inclusions: étude RAPAMI"</t>
   </si>
   <si>
+    <t>Identifying the Neural Correlates of Cognitive Impulsivity in Patients With Tourette Syndrome. "COGIT".</t>
+  </si>
+  <si>
     <t>Comparaison d'Une Nouvelle Technique de Mesure de l'insulinorésistance Par Scintigraphie Avec la Technique de référence : Utilisation du 6-DIG Comme Marqueur du Transport du Glucose.</t>
   </si>
   <si>
     <t>Cerebello-thalamo-cortical Coupling in Essential Tremor: Effects of High Frequency tACS of the Cerebellum</t>
   </si>
   <si>
-    <t>Identifying the Neural Correlates of Cognitive Impulsivity in Patients With Tourette Syndrome. "COGIT".</t>
-  </si>
-  <si>
-    <t>Therapeutic Metabolic Intervention in Patients With Spastic Paraplegia SPG5</t>
-  </si>
-  <si>
-    <t>Beta-arrestins and Response to Venlafaxine in Major Depressive Disorder</t>
+    <t>Validation of Laser Doppler Vibrometer (LDV) for Measurement of Arterial Stiffness in Hypertensive Patients</t>
   </si>
   <si>
     <t>A Multicenter Randomized Superiority Study To Compare The Effects Of An 8-Weeks Mindfulness-based Intervention Versus Health Education Programme On Mental Health And Wellbeing In Individuals With Subjective Cognitive Decline</t>
   </si>
   <si>
-    <t>Thérapeutique expérimentale du Tremblement Essentiel Par la Stimulation Transcranienne Par Courant Direct (tDCS) du Cortex Cerebelleux</t>
-  </si>
-  <si>
-    <t>E-Compared: Comparative Effectiveness Research on Internet Based Depression Treatment- French Trial</t>
-  </si>
-  <si>
-    <t>Validation of Laser Doppler Vibrometer (LDV) for Measurement of Arterial Stiffness in Hypertensive Patients</t>
-  </si>
-  <si>
-    <t>Doppler Ultrasonore Ultrasensible Peropératoire du Cerveau - Vers Une Aide Temps Reel à la Cartographie Corticale Fonctionnelle</t>
-  </si>
-  <si>
-    <t>A Pilot Study to Evaluate the Safety of a 3 Weeks Sitagliptin Treatment in HCC Patients Undergoing Liver Resection</t>
+    <t>NEw approacheS for The dIagnosis of AlzeiMer's diseAse Through neuroElectrical Changes in the Brain</t>
+  </si>
+  <si>
+    <t>Retablissement Du Microbiote Naturel Apres Naissance Par Cesarienne</t>
+  </si>
+  <si>
+    <t>A New Method for the Characterisation of Pleasure for Food in Obesity and Relationships with the Endocannabinoid System</t>
+  </si>
+  <si>
+    <t>Development of New Multi-contrasts Approaches by Magnetic Resonance Imaging At 3 Tesla Dedicated to Targeting Subthalamic Nucleus on Parkinsonian Patients.</t>
+  </si>
+  <si>
+    <t>Effets du Tabagisme in Utero Sur la fonctionnalité de l'épithelium Respiratoire et Sur la Fonction Ventilatoire du Nouveau-né.</t>
+  </si>
+  <si>
+    <t>Energy Expenditure and Brown Adipose Tissue in Amyotrophic Lateral Sclerosis</t>
+  </si>
+  <si>
+    <t>Decoding Presymptomatic White Matter Changes in Huntington Disease</t>
+  </si>
+  <si>
+    <t>A Comparative Phase 2 Study Assessing the Efficacy of Triheptanoin, an Anaplerotic Therapy in Huntington's Disease</t>
   </si>
   <si>
     <t>Phase Ia/Ib, Randomized, Double Blinded, Dose Escalation Trial to Evaluate the Safety and Immunogenicity in Healthy European and Burkinabe Adults of a Placental Malaria Vaccine Candidate (PRIMVAC) Formulated With Alhydrogel ® or GLA-SE</t>
   </si>
   <si>
-    <t>NEw approacheS for The dIagnosis of AlzeiMer's diseAse Through neuroElectrical Changes in the Brain</t>
-  </si>
-  <si>
-    <t>A Comparative Phase 2 Study Assessing the Efficacy of Triheptanoin, an Anaplerotic Therapy in Huntington's Disease</t>
-  </si>
-  <si>
     <t>A comparative phase2 study assessing the efficacy of triheptanoin, an anaplerotic therapy in Huntington's Disease (TRIHEP 3)</t>
   </si>
   <si>
-    <t>Retablissement Du Microbiote Naturel Apres Naissance Par Cesarienne</t>
-  </si>
-  <si>
     <t>DIFFUSION SPECTROSCOPY AND IMAGING IN ACUTE STROKE</t>
   </si>
   <si>
     <t>Phase II Open Label Study Using Triheptanoin in Patients With Glucose Type 1 Transporter Deficiency GLUT1-DS</t>
   </si>
   <si>
-    <t>Decoding Presymptomatic White Matter Changes in Huntington Disease</t>
-  </si>
-  <si>
-    <t>Energy Expenditure and Brown Adipose Tissue in Amyotrophic Lateral Sclerosis</t>
-  </si>
-  <si>
-    <t>Effets du Tabagisme in Utero Sur la fonctionnalité de l'épithelium Respiratoire et Sur la Fonction Ventilatoire du Nouveau-né.</t>
+    <t>Cause and Consequence of Neural Fatigue</t>
   </si>
   <si>
     <t>Relationship Between Endogenous CETP Activity and Atherosclerosis Distribution in Patients With High Cardiovascular Risk</t>
   </si>
   <si>
+    <t>OLFACTION and BIPOLAR DISODER</t>
+  </si>
+  <si>
+    <t>Mise au Point de Protocoles RMN Sur l'Imageur Philips 3T installé Sur le Site du Pavillon Baudot du CHU Purpan à Toulouse</t>
+  </si>
+  <si>
+    <t>Description Des Troubles Respiratoires Chez Les Patients Suivis Pour Une Sclérose En Plaques (SEP) Sévère</t>
+  </si>
+  <si>
     <t>Effects of Deep Brain Stimulation of the Mesencephalic Locomotor Region on Gait and Balance Disorders in Parkinson's Disease Patients : a Randomized, Double-blind, Cross-over Study</t>
   </si>
   <si>
-    <t>Mise au Point de Protocoles RMN Sur l'Imageur Philips 3T installé Sur le Site du Pavillon Baudot du CHU Purpan à Toulouse</t>
-  </si>
-  <si>
-    <t>Cause and Consequence of Neural Fatigue</t>
+    <t>Identification Des Bases Moléculaires De L'éjaculation Prématurée Primaire</t>
+  </si>
+  <si>
+    <t>Biomarkers to Predict Gain From Therapy in Motor Stroke</t>
   </si>
   <si>
     <t>Séroprévalence Des IgG dirigés Contre le SARS-CoV-2 Chez Les Professionnels de santé en Soins Primaires et Leurs Contacts au Sein Des ménages</t>
@@ -626,40 +829,78 @@
     <t>Organisation du Cortex préfrontal ventrolatéral Pour l'Analogie: Approche Bimodale Chez le Sujet Sain et Chez le Patient Ayant un Syndrome Frontal.</t>
   </si>
   <si>
+    <t>In Vivo Analysis of Muscle Stem Cell Vascular Niche in Patients Presenting Chronic and Acute Lower Limb Ischemia (MyostemIschemia)</t>
+  </si>
+  <si>
+    <t>Electrophysiological Biomarkers of Spinal Neural Activity: Study in Healthy Subjects Matched to ALS Patient Group</t>
+  </si>
+  <si>
     <t>Investigation of Treatment Using the MyoRegulator® Device in Patients With Spasticity in the Lower Limb Due to Stroke</t>
   </si>
   <si>
     <t>Microbiota and Bone Fragility: Study of the Relation Between Gut Microbiota and Bone Microarchitecture (Microbone)</t>
   </si>
   <si>
+    <t>Characterizing the Neural Bases of Motivational Disorders After Stroke</t>
+  </si>
+  <si>
+    <t>A Phase I/II, Open Labeled, Monocentric Study of Direct Intracranial Administration of a Replication Deficient Adeno-associated Virus Gene Transfer Vector Serotype Rh.10 Expressing the Human ARSA CDNA to Children with Metachromatic Leukodystrophy.</t>
+  </si>
+  <si>
     <t>Efficiency in Population of Influenza Vaccination for Flu Prevention of the Hospitalized Adults</t>
   </si>
   <si>
+    <t>Multi-centre, Adaptive, Randomized Trial of the Safety and Efficacy of Treatments of COVID-19 in Hospitalized Adults</t>
+  </si>
+  <si>
+    <t>Multi-centre, adaptive, randomized trial of the safety and efficacy of treatments of COVID-19 in hospitalized adults</t>
+  </si>
+  <si>
+    <t>Penetration of the Innovative Antibiotic Gepotidacin Into Prostate and Tonsillar Tissue.</t>
+  </si>
+  <si>
+    <t>Interventional Study in Cognitively Intact Seniors Aiming to Assess the Effects of Meditation Training and Foreign Language Learning on Behavioral, Biological and Neuroimaging Measures</t>
+  </si>
+  <si>
     <t>Impact of a School- and Primary Care-based Multicomponent Intervention on HPV Vaccination Acceptability Among French Adolescents: a Cluster Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Penetration of the Innovative Antibiotic Gepotidacin Into Prostate and Tonsillar Tissue.</t>
-  </si>
-  <si>
-    <t>Multi-centre, Adaptive, Randomized Trial of the Safety and Efficacy of Treatments of COVID-19 in Hospitalized Adults</t>
-  </si>
-  <si>
     <t>Kit de Pharmacologie Spatial - Analyse de l'Utilisation Des Dried Blood Spot Pour le Dosage de la caféine Chez Des Volontaires Sains en microgravité au Cours Des Vols Paraboliques</t>
   </si>
   <si>
+    <t>Characterization of Intra-osseous Vascular Response with Ultrasound Imaging on Healthy Volunteers</t>
+  </si>
+  <si>
+    <t>Integrated Silicon Photonics for Cardiovascular Disease Monitoring InSiDe-CC Clinical Validation of the Diagnostic Device (LDV) for the Measurement of Heart-carotid Pulse Wave Velocity (PWV) by Magnetic Resonance Imaging (MRI)</t>
+  </si>
+  <si>
+    <t>PHASE I-II EFFICACY-TOXICITY OF ARTESUNATE IN FRIEDREICH ATAXIA 
+ Evaluation de l’Effet de l’Artésunate dans l’Ataxie de Friedreich (AF) Etude de Tolérance et d’Efficacité de Phase I/II</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effect of Artesunate in Friedreich Ataxia (FA) Phase I-II Efficacy-Toxicity of Artesunate in Friedreich Ataxia</t>
+  </si>
+  <si>
+    <t>Interactions Between Striatum and Cerebellum in ADCY5 and PRRT2 Dystonias</t>
+  </si>
+  <si>
+    <t>Assessment of Apathy in a Real-life Situation, With a Video and Sensors-based System in Healthy Subject and Patient With Cerebral Disease</t>
+  </si>
+  <si>
     <t>Characterization of New Candidate Genes in Cases of Human Inherited Thrombocytopenia (CATCH). Molecular Etiologies in Cases of Thrombocytopenia</t>
   </si>
   <si>
-    <t>Integrated Silicon Photonics for Cardiovascular Disease Monitoring InSiDe-CC Clinical Validation of the Diagnostic Device (LDV) for the Measurement of Heart-carotid Pulse Wave Velocity (PWV) by Magnetic Resonance Imaging (MRI)</t>
-  </si>
-  <si>
-    <t>Characterization of Intra-osseous Vascular Response With Ultrasound Imaging on Healthy Volunteers</t>
-  </si>
-  <si>
-    <t>Assessment of Apathy in a Real-life Situation, With a Video and Sensors-based System in Healthy Subject and Patient With Cerebral Disease</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effect of Artesunate in Friedreich Ataxia (FA) Phase I-II Efficacy-Toxicity of Artesunate in Friedreich Ataxia</t>
+    <t>PET with [18F]Flumazenil As an Index of Neurodegeneration in MS: Sensitivity At an Early Disease Stage and Pathophysiological Meaning</t>
+  </si>
+  <si>
+    <t>A phase I, prophylactic HIV vaccine trial to evaluate the safety and immunogenicity of HIV Clade C DREP alone and in Combination with a Clade C ENV protein in healthy HIV-uninfected adults.</t>
+  </si>
+  <si>
+    <t>Cohorte multicentrique nationale de patients atteints de grippe pandémique (nouveau virus A/H1N1v d’origine porcine)</t>
+  </si>
+  <si>
+    <t>ANRS 173 ALTAR A randomized, open-label, phase III trial comparing a dual nucleoside analogues strategy preceded by an induction period with an integrase inhibitor based triple therapy to an immediate two-drug strategy with dolutegravir plus lamivudine in ART naïve people living with HIV with viral load &lt; 50 000 cp/mL and CD4 cells &gt;300/mm3 
+ ANRS 173 ALTAR Essai randomisé de phase III, ouvert, comparant une stratégie de bithérapie d’analogues nucléosidiques précédée d’une phase d’induction avec une trithérapie à base d'inhibiteur d’intégrase à une stratégie de bithérapie immédiate comportant dolutegravir plus lamivudine chez des personnes vivant avec le VIH, naïves de traitement antirétroviral, ayant une charge virale &lt; à 50 000 copies/mL et des lymphocytes CD4 &gt; 300/mm3</t>
   </si>
   <si>
     <t>Combined Prevention of Sexually Transmitted Infections (STIs) in Men Who Have Sex with Men using oral TDF/FTC for HIV Pre-Exposure Prophylaxis (PrEP) 
@@ -674,109 +915,130 @@
  Essai multicentrique, en ouvert, randomisé en 2 groupes parallèles, évaluant la non-infériorité d’un traitement de maintenance à 4 jours consécutifs sur 7 versus la poursuite du traitement antirétroviral en continu, chez des patients en succès thérapeutique sous ARV.</t>
   </si>
   <si>
-    <t>Immunothérapie par vaccination anti-rougeoleuse chez l'adulte atteint de dermatite atopique</t>
-  </si>
-  <si>
     <t>RBM99026</t>
   </si>
   <si>
+    <t>Transfluvac</t>
+  </si>
+  <si>
+    <t>FLU-HOP</t>
+  </si>
+  <si>
     <t>PREFLUVAC</t>
   </si>
   <si>
-    <t>Transfluvac</t>
+    <t>Placebo, paroxétine et apprentissage</t>
+  </si>
+  <si>
+    <t>CIME1</t>
   </si>
   <si>
     <t>MOMIC</t>
   </si>
   <si>
-    <t>CIME1</t>
+    <t>FIBROSAND</t>
+  </si>
+  <si>
+    <t>CERDYS</t>
   </si>
   <si>
     <t>CURHEP</t>
   </si>
   <si>
+    <t>PRO-MH</t>
+  </si>
+  <si>
+    <t>TOC TOC</t>
+  </si>
+  <si>
     <t>IDA-Adult</t>
   </si>
   <si>
-    <t>TOC TOC</t>
-  </si>
-  <si>
-    <t>PRO-MH</t>
-  </si>
-  <si>
     <t>PRADO</t>
   </si>
   <si>
     <t>TRIHEP2</t>
   </si>
   <si>
+    <t>GLUCIMAG</t>
+  </si>
+  <si>
+    <t>FLUVAC EV-02</t>
+  </si>
+  <si>
     <t>ELECTRE</t>
   </si>
   <si>
-    <t>GLUCIMAG</t>
+    <t>BYE BYE DOPA</t>
+  </si>
+  <si>
+    <t>MOUVADOC</t>
   </si>
   <si>
     <t>MBBCitalopram</t>
   </si>
   <si>
-    <t>BYE BYE DOPA</t>
-  </si>
-  <si>
-    <t>MOUVADOC</t>
+    <t>CERESMARCHE</t>
+  </si>
+  <si>
+    <t>CogRad</t>
+  </si>
+  <si>
+    <t>PRALIMAP-INES</t>
+  </si>
+  <si>
+    <t>PRO-MH2</t>
+  </si>
+  <si>
+    <t>TINN</t>
+  </si>
+  <si>
+    <t>HDL-PP</t>
   </si>
   <si>
     <t>INSTIN</t>
   </si>
   <si>
+    <t>EGEVE</t>
+  </si>
+  <si>
     <t>AMA1-DiCo</t>
   </si>
   <si>
-    <t>EGEVE</t>
-  </si>
-  <si>
-    <t>PRALIMAP-INES</t>
-  </si>
-  <si>
-    <t>CERESMARCHE</t>
-  </si>
-  <si>
-    <t>PRO-MH2</t>
-  </si>
-  <si>
-    <t>HDL-PP</t>
+    <t>MULTIBRAIN_1</t>
+  </si>
+  <si>
+    <t>MBBAnalgesic</t>
   </si>
   <si>
     <t>GAMMA</t>
   </si>
   <si>
+    <t>COGICRehab</t>
+  </si>
+  <si>
+    <t>MultiPAMS</t>
+  </si>
+  <si>
+    <t>OrthoCT1</t>
+  </si>
+  <si>
+    <t>MINDED</t>
+  </si>
+  <si>
     <t>MOMIC2</t>
   </si>
   <si>
-    <t>OrthoCT1</t>
-  </si>
-  <si>
-    <t>MBBAnalgesic</t>
-  </si>
-  <si>
-    <t>MULTIBRAIN_1</t>
-  </si>
-  <si>
     <t>PNEUMOVACB</t>
   </si>
   <si>
-    <t>MINDED</t>
-  </si>
-  <si>
-    <t>MultiPAMS</t>
-  </si>
-  <si>
-    <t>COGICRehab</t>
+    <t>STOP</t>
   </si>
   <si>
     <t>PROFIDYS</t>
   </si>
   <si>
-    <t>STOP</t>
+    <t>HEMIHEP</t>
   </si>
   <si>
     <t>PARKGAME</t>
@@ -785,83 +1047,94 @@
     <t>MULTIBRAIN_2</t>
   </si>
   <si>
-    <t>HEMIHEP</t>
-  </si>
-  <si>
-    <t>ANRS SHS155 STIMAGO 
- ANRS SHS155 STIMAGO</t>
+    <t>SPA-M</t>
+  </si>
+  <si>
+    <t>DEPARRESTCLIN</t>
+  </si>
+  <si>
+    <t>FUSIMAGINE</t>
+  </si>
+  <si>
+    <t>ELECTRE2</t>
+  </si>
+  <si>
+    <t>E-COMPARED</t>
+  </si>
+  <si>
+    <t>HCC-DPPIV</t>
   </si>
   <si>
     <t>RAPAMI</t>
   </si>
   <si>
+    <t>COGIT</t>
+  </si>
+  <si>
     <t>GLUCIMAG2</t>
   </si>
   <si>
     <t>CERESTIM</t>
   </si>
   <si>
-    <t>COGIT</t>
-  </si>
-  <si>
-    <t>SPA-M</t>
-  </si>
-  <si>
-    <t>DEPARRESTCLIN</t>
+    <t>CARDIS-PWV</t>
   </si>
   <si>
     <t>SCD-WELL</t>
   </si>
   <si>
-    <t>ELECTRE2</t>
-  </si>
-  <si>
-    <t>E-COMPARED</t>
-  </si>
-  <si>
-    <t>CARDIS-PWV</t>
-  </si>
-  <si>
-    <t>FUSIMAGINE</t>
-  </si>
-  <si>
-    <t>HCC-DPPIV</t>
+    <t>ESTIMATE</t>
+  </si>
+  <si>
+    <t>RESTORE</t>
+  </si>
+  <si>
+    <t>PLOBEC</t>
+  </si>
+  <si>
+    <t>Optimise_3T</t>
+  </si>
+  <si>
+    <t>ENGRAMME</t>
+  </si>
+  <si>
+    <t>BATALS</t>
+  </si>
+  <si>
+    <t>Win-HD</t>
+  </si>
+  <si>
+    <t>TRIHEP3</t>
   </si>
   <si>
     <t>PRIMALVAC</t>
   </si>
   <si>
-    <t>ESTIMATE</t>
-  </si>
-  <si>
-    <t>TRIHEP3</t>
-  </si>
-  <si>
-    <t>RESTORE</t>
-  </si>
-  <si>
     <t>ISIS</t>
   </si>
   <si>
     <t>GLUT-HEP</t>
   </si>
   <si>
-    <t>Win-HD</t>
-  </si>
-  <si>
-    <t>BATALS</t>
+    <t>Fatstim</t>
   </si>
   <si>
     <t>CETP-ATHERO</t>
   </si>
   <si>
+    <t>OLF-BP</t>
+  </si>
+  <si>
+    <t>(MISAP)</t>
+  </si>
+  <si>
+    <t>RespiMuS</t>
+  </si>
+  <si>
     <t>GAITPARK</t>
   </si>
   <si>
-    <t>(MISAP)</t>
-  </si>
-  <si>
-    <t>Fatstim</t>
+    <t>GAIN</t>
   </si>
   <si>
     <t>COVID-SeroPRIM</t>
@@ -870,37 +1143,67 @@
     <t>ANALOG</t>
   </si>
   <si>
+    <t>SpineBioMark</t>
+  </si>
+  <si>
     <t>SPAST</t>
   </si>
   <si>
     <t>MICROBONE</t>
   </si>
   <si>
+    <t>MOTI-stroke</t>
+  </si>
+  <si>
+    <t>TG-MLD</t>
+  </si>
+  <si>
     <t>FLUVAC EV-03</t>
   </si>
   <si>
+    <t>DisCoVeRy</t>
+  </si>
+  <si>
+    <t>AB-Direct</t>
+  </si>
+  <si>
+    <t>Age-Well</t>
+  </si>
+  <si>
     <t>PrevHPV</t>
   </si>
   <si>
-    <t>AB-Direct</t>
-  </si>
-  <si>
-    <t>DisCoVeRy</t>
-  </si>
-  <si>
     <t>PSK</t>
   </si>
   <si>
+    <t>InSide-CC</t>
+  </si>
+  <si>
+    <t>ESSAI ARTEMIS</t>
+  </si>
+  <si>
+    <t>ARTEMIS</t>
+  </si>
+  <si>
+    <t>AMEDYST</t>
+  </si>
+  <si>
+    <t>ECOCAPTURE</t>
+  </si>
+  <si>
     <t>CATCH</t>
   </si>
   <si>
-    <t>InSide-CC</t>
-  </si>
-  <si>
-    <t>ECOCAPTURE</t>
-  </si>
-  <si>
-    <t>ARTEMIS</t>
+    <t>FLUMA-SEP-T</t>
+  </si>
+  <si>
+    <t>EHVA_P01/ANRS_VRI08</t>
+  </si>
+  <si>
+    <t>Etude Flu Co</t>
+  </si>
+  <si>
+    <t>ALTAR</t>
   </si>
   <si>
     <t>Doxyvac</t>
@@ -913,27 +1216,24 @@
  QUATUOR</t>
   </si>
   <si>
-    <t>Protocole IDA</t>
+    <t>BIOLOGICAL</t>
   </si>
   <si>
     <t>DRUG</t>
   </si>
   <si>
-    <t>BIOLOGICAL</t>
-  </si>
-  <si>
     <t>BEHAVIORAL</t>
   </si>
   <si>
     <t>DEVICE</t>
   </si>
   <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
-    <t>RADIATION</t>
-  </si>
-  <si>
     <t>PROCEDURE</t>
   </si>
   <si>
@@ -941,6 +1241,9 @@
   </si>
   <si>
     <t>DIAGNOSTIC_TEST</t>
+  </si>
+  <si>
+    <t>GENETIC</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1344,13 +1647,16 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>179</v>
+      </c>
+      <c r="H2" t="s">
+        <v>298</v>
       </c>
       <c r="I2" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1364,122 +1670,125 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="I3" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>182</v>
       </c>
       <c r="I5" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="I6" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
+      <c r="D7" t="s">
+        <v>129</v>
+      </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>299</v>
       </c>
       <c r="I7" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
+      <c r="D8" t="s">
+        <v>130</v>
+      </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>164</v>
       </c>
       <c r="G8" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="H8" t="s">
-        <v>221</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>299</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1492,83 +1801,92 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="G9" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="H9" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="I9" t="s">
-        <v>302</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>132</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="H10" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="I10" t="s">
-        <v>298</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>133</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="H11" t="s">
-        <v>224</v>
+        <v>303</v>
       </c>
       <c r="I11" t="s">
-        <v>298</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>189</v>
+      </c>
+      <c r="H12" t="s">
+        <v>304</v>
       </c>
       <c r="I12" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1579,85 +1897,79 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="I13" t="s">
-        <v>299</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="I14" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="G15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H15" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="I15" t="s">
-        <v>300</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>166</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>193</v>
       </c>
       <c r="H16" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="I16" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1668,105 +1980,111 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>143</v>
+        <v>194</v>
       </c>
       <c r="H17" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="I17" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>195</v>
       </c>
       <c r="H18" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="I18" t="s">
-        <v>298</v>
+        <v>399</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="H19" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="I19" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>145</v>
+        <v>197</v>
+      </c>
+      <c r="H20" t="s">
+        <v>309</v>
       </c>
       <c r="I20" t="s">
-        <v>298</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
-      </c>
-      <c r="H21" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="I21" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1777,39 +2095,42 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
-        <v>147</v>
+        <v>199</v>
+      </c>
+      <c r="H22" t="s">
+        <v>310</v>
       </c>
       <c r="I22" t="s">
-        <v>303</v>
+        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H23" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="I23" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1820,19 +2141,19 @@
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="G24" t="s">
-        <v>149</v>
-      </c>
-      <c r="H24" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="I24" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1843,42 +2164,39 @@
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="H25" t="s">
-        <v>234</v>
+        <v>311</v>
       </c>
       <c r="I25" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="G26" t="s">
-        <v>151</v>
-      </c>
-      <c r="H26" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="I26" t="s">
-        <v>299</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1889,19 +2207,16 @@
         <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
-      </c>
-      <c r="G27" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H27" t="s">
-        <v>236</v>
+        <v>312</v>
       </c>
       <c r="I27" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1912,309 +2227,324 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>137</v>
       </c>
       <c r="F28" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="G28" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="H28" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="I28" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="G29" t="s">
-        <v>154</v>
+        <v>205</v>
+      </c>
+      <c r="H29" t="s">
+        <v>314</v>
       </c>
       <c r="I29" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="G30" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="H30" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="I30" t="s">
-        <v>300</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="G31" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="I31" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="G32" t="s">
-        <v>157</v>
+        <v>208</v>
       </c>
       <c r="H32" t="s">
-        <v>240</v>
+        <v>316</v>
       </c>
       <c r="I32" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="G33" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="H33" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="I33" t="s">
-        <v>302</v>
+        <v>401</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
       </c>
       <c r="F34" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="G34" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="H34" t="s">
-        <v>242</v>
+        <v>318</v>
       </c>
       <c r="I34" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G35" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="H35" t="s">
-        <v>243</v>
+        <v>319</v>
       </c>
       <c r="I35" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G36" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="H36" t="s">
-        <v>244</v>
+        <v>320</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>403</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G37" t="s">
-        <v>162</v>
+        <v>213</v>
+      </c>
+      <c r="H37" t="s">
+        <v>321</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G38" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="H38" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
       <c r="I38" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="D39" t="s">
+        <v>139</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G39" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="H39" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
       <c r="I39" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G40" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="H40" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
       <c r="I40" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G41" t="s">
-        <v>166</v>
+        <v>217</v>
+      </c>
+      <c r="H41" t="s">
+        <v>325</v>
       </c>
       <c r="I41" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2225,180 +2555,186 @@
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G42" t="s">
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="H42" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="I42" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
       </c>
       <c r="F43" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G43" t="s">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="H43" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="I43" t="s">
-        <v>300</v>
+        <v>398</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="G44" t="s">
-        <v>169</v>
-      </c>
-      <c r="H44" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="I44" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G45" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="H45" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="I45" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>141</v>
       </c>
       <c r="F46" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G46" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="H46" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="I46" t="s">
-        <v>301</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G47" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>330</v>
       </c>
       <c r="I47" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>142</v>
       </c>
       <c r="F48" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G48" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="H48" t="s">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="I48" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="G49" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="H49" t="s">
-        <v>255</v>
+        <v>332</v>
       </c>
       <c r="I49" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2408,201 +2744,201 @@
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="D50" t="s">
-        <v>104</v>
+      <c r="C50" t="s">
+        <v>64</v>
       </c>
       <c r="F50" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="G50" t="s">
-        <v>174</v>
-      </c>
-      <c r="H50" t="s">
-        <v>256</v>
+        <v>226</v>
+      </c>
+      <c r="I50" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>65</v>
       </c>
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="G51" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="H51" t="s">
-        <v>257</v>
+        <v>333</v>
       </c>
       <c r="I51" t="s">
-        <v>298</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>66</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="G52" t="s">
-        <v>176</v>
-      </c>
-      <c r="H52" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="I52" t="s">
-        <v>304</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
         <v>67</v>
       </c>
       <c r="F53" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="G53" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="H53" t="s">
-        <v>259</v>
+        <v>334</v>
       </c>
       <c r="I53" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
       </c>
       <c r="F54" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="G54" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="H54" t="s">
-        <v>260</v>
+        <v>335</v>
       </c>
       <c r="I54" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>69</v>
       </c>
+      <c r="D55" t="s">
+        <v>144</v>
+      </c>
       <c r="F55" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="G55" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="H55" t="s">
-        <v>261</v>
+        <v>336</v>
       </c>
       <c r="I55" t="s">
-        <v>305</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>70</v>
       </c>
       <c r="F56" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="G56" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="H56" t="s">
-        <v>262</v>
+        <v>337</v>
       </c>
       <c r="I56" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="G57" t="s">
-        <v>181</v>
-      </c>
-      <c r="H57" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="I57" t="s">
-        <v>300</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C58" t="s">
         <v>72</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="G58" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="H58" t="s">
-        <v>264</v>
+        <v>338</v>
       </c>
       <c r="I58" t="s">
-        <v>301</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2616,513 +2952,528 @@
         <v>73</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="G59" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
       <c r="H59" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="I59" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C60" t="s">
         <v>74</v>
       </c>
       <c r="F60" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="G60" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="H60" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="I60" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="H61" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="I61" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
         <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>172</v>
       </c>
       <c r="G62" t="s">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c r="H62" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="I62" t="s">
-        <v>298</v>
+        <v>405</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
         <v>77</v>
       </c>
+      <c r="D63" t="s">
+        <v>145</v>
+      </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G63" t="s">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="H63" t="s">
-        <v>269</v>
+        <v>343</v>
       </c>
       <c r="I63" t="s">
-        <v>299</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G64" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="H64" t="s">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="I64" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
         <v>79</v>
       </c>
       <c r="F65" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G65" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="H65" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="I65" t="s">
-        <v>298</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" t="s">
-        <v>105</v>
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
+        <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G66" t="s">
-        <v>190</v>
+        <v>241</v>
+      </c>
+      <c r="H66" t="s">
+        <v>346</v>
+      </c>
+      <c r="I66" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>81</v>
+      </c>
+      <c r="D67" t="s">
+        <v>146</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G67" t="s">
-        <v>191</v>
+        <v>242</v>
       </c>
       <c r="H67" t="s">
-        <v>272</v>
+        <v>347</v>
       </c>
       <c r="I67" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D68" t="s">
+        <v>147</v>
       </c>
       <c r="F68" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G68" t="s">
-        <v>192</v>
+        <v>243</v>
       </c>
       <c r="H68" t="s">
-        <v>273</v>
+        <v>348</v>
       </c>
       <c r="I68" t="s">
-        <v>301</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G69" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="H69" t="s">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="I69" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="D70" t="s">
+        <v>148</v>
       </c>
       <c r="F70" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G70" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="H70" t="s">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="I70" t="s">
-        <v>300</v>
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F71" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G71" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="H71" t="s">
-        <v>276</v>
+        <v>351</v>
       </c>
       <c r="I71" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F72" t="s">
-        <v>122</v>
+        <v>172</v>
       </c>
       <c r="G72" t="s">
-        <v>196</v>
+        <v>247</v>
+      </c>
+      <c r="H72" t="s">
+        <v>352</v>
       </c>
       <c r="I72" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F73" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="G73" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="H73" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="I73" t="s">
-        <v>302</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F74" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="G74" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="H74" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="I74" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F75" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="G75" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="H75" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="I75" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F76" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="G76" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="H76" t="s">
-        <v>280</v>
+        <v>356</v>
       </c>
       <c r="I76" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F77" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="G77" t="s">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c r="H77" t="s">
-        <v>281</v>
+        <v>357</v>
       </c>
       <c r="I77" t="s">
-        <v>306</v>
+        <v>404</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F78" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="G78" t="s">
-        <v>202</v>
-      </c>
-      <c r="H78" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="I78" t="s">
-        <v>300</v>
+        <v>406</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F79" t="s">
-        <v>124</v>
-      </c>
-      <c r="G79" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="H79" t="s">
-        <v>283</v>
+        <v>358</v>
       </c>
       <c r="I79" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F80" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="G80" t="s">
-        <v>204</v>
+        <v>254</v>
       </c>
       <c r="H80" t="s">
-        <v>284</v>
+        <v>359</v>
       </c>
       <c r="I80" t="s">
-        <v>303</v>
+        <v>401</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F81" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="G81" t="s">
-        <v>205</v>
+        <v>255</v>
       </c>
       <c r="H81" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="I81" t="s">
-        <v>302</v>
+        <v>403</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3133,251 +3484,269 @@
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F82" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="G82" t="s">
-        <v>206</v>
+        <v>256</v>
       </c>
       <c r="H82" t="s">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="I82" t="s">
-        <v>302</v>
+        <v>399</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="D83" t="s">
+        <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="G83" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="H83" t="s">
-        <v>287</v>
+        <v>362</v>
       </c>
       <c r="I83" t="s">
-        <v>298</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" t="s">
-        <v>97</v>
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>150</v>
       </c>
       <c r="F84" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="G84" t="s">
-        <v>208</v>
-      </c>
-      <c r="H84" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="I84" t="s">
-        <v>298</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>98</v>
       </c>
       <c r="F85" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="G85" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="H85" t="s">
-        <v>289</v>
+        <v>363</v>
       </c>
       <c r="I85" t="s">
-        <v>306</v>
+        <v>401</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>99</v>
       </c>
       <c r="F86" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
       <c r="G86" t="s">
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="H86" t="s">
-        <v>290</v>
+        <v>364</v>
       </c>
       <c r="I86" t="s">
-        <v>306</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
         <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="G87" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="H87" t="s">
-        <v>291</v>
+        <v>365</v>
       </c>
       <c r="I87" t="s">
-        <v>304</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>101</v>
       </c>
       <c r="F88" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="G88" t="s">
-        <v>212</v>
+        <v>262</v>
+      </c>
+      <c r="H88" t="s">
+        <v>366</v>
       </c>
       <c r="I88" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
         <v>102</v>
       </c>
       <c r="F89" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="G89" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="H89" t="s">
-        <v>292</v>
+        <v>367</v>
       </c>
       <c r="I89" t="s">
-        <v>300</v>
+        <v>403</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C90" t="s">
         <v>103</v>
       </c>
       <c r="F90" t="s">
-        <v>127</v>
+        <v>174</v>
       </c>
       <c r="G90" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="H90" t="s">
-        <v>293</v>
+        <v>368</v>
       </c>
       <c r="I90" t="s">
-        <v>298</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" t="s">
-        <v>106</v>
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F91" t="s">
+        <v>174</v>
       </c>
       <c r="G91" t="s">
-        <v>215</v>
+        <v>265</v>
       </c>
       <c r="H91" t="s">
-        <v>294</v>
+        <v>369</v>
+      </c>
+      <c r="I91" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="C92" t="s">
+        <v>105</v>
+      </c>
+      <c r="F92" t="s">
+        <v>174</v>
       </c>
       <c r="G92" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="H92" t="s">
-        <v>295</v>
+        <v>370</v>
+      </c>
+      <c r="I92" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" t="s">
-        <v>108</v>
+        <v>14</v>
+      </c>
+      <c r="C93" t="s">
+        <v>106</v>
+      </c>
+      <c r="F93" t="s">
+        <v>174</v>
       </c>
       <c r="G93" t="s">
-        <v>217</v>
-      </c>
-      <c r="H93" t="s">
-        <v>296</v>
+        <v>267</v>
+      </c>
+      <c r="I93" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3387,14 +3756,669 @@
       <c r="B94" t="s">
         <v>14</v>
       </c>
-      <c r="D94" t="s">
+      <c r="C94" t="s">
+        <v>107</v>
+      </c>
+      <c r="F94" t="s">
+        <v>175</v>
+      </c>
+      <c r="G94" t="s">
+        <v>268</v>
+      </c>
+      <c r="H94" t="s">
+        <v>371</v>
+      </c>
+      <c r="I94" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+      <c r="F95" t="s">
+        <v>175</v>
+      </c>
+      <c r="G95" t="s">
+        <v>269</v>
+      </c>
+      <c r="H95" t="s">
+        <v>372</v>
+      </c>
+      <c r="I95" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" t="s">
         <v>109</v>
       </c>
-      <c r="G94" t="s">
-        <v>218</v>
-      </c>
-      <c r="H94" t="s">
+      <c r="F96" t="s">
+        <v>175</v>
+      </c>
+      <c r="G96" t="s">
+        <v>270</v>
+      </c>
+      <c r="H96" t="s">
+        <v>373</v>
+      </c>
+      <c r="I96" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" t="s">
+        <v>175</v>
+      </c>
+      <c r="G97" t="s">
+        <v>271</v>
+      </c>
+      <c r="I97" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F98" t="s">
+        <v>175</v>
+      </c>
+      <c r="G98" t="s">
+        <v>272</v>
+      </c>
+      <c r="H98" t="s">
+        <v>374</v>
+      </c>
+      <c r="I98" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" t="s">
+        <v>112</v>
+      </c>
+      <c r="F99" t="s">
+        <v>175</v>
+      </c>
+      <c r="G99" t="s">
+        <v>273</v>
+      </c>
+      <c r="H99" t="s">
+        <v>375</v>
+      </c>
+      <c r="I99" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="s">
+        <v>113</v>
+      </c>
+      <c r="F100" t="s">
+        <v>176</v>
+      </c>
+      <c r="G100" t="s">
+        <v>274</v>
+      </c>
+      <c r="H100" t="s">
+        <v>376</v>
+      </c>
+      <c r="I100" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" t="s">
+        <v>176</v>
+      </c>
+      <c r="G101" t="s">
+        <v>275</v>
+      </c>
+      <c r="H101" t="s">
+        <v>377</v>
+      </c>
+      <c r="I101" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>12</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>151</v>
+      </c>
+      <c r="F102" t="s">
+        <v>176</v>
+      </c>
+      <c r="G102" t="s">
+        <v>276</v>
+      </c>
+      <c r="H102" t="s">
+        <v>378</v>
+      </c>
+      <c r="I102" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="F103" t="s">
+        <v>176</v>
+      </c>
+      <c r="G103" t="s">
+        <v>277</v>
+      </c>
+      <c r="H103" t="s">
+        <v>379</v>
+      </c>
+      <c r="I103" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" t="s">
+        <v>177</v>
+      </c>
+      <c r="G104" t="s">
+        <v>278</v>
+      </c>
+      <c r="H104" t="s">
+        <v>380</v>
+      </c>
+      <c r="I104" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>152</v>
+      </c>
+      <c r="F105" t="s">
+        <v>177</v>
+      </c>
+      <c r="G105" t="s">
+        <v>279</v>
+      </c>
+      <c r="H105" t="s">
+        <v>380</v>
+      </c>
+      <c r="I105" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>118</v>
+      </c>
+      <c r="D106" t="s">
+        <v>153</v>
+      </c>
+      <c r="F106" t="s">
+        <v>177</v>
+      </c>
+      <c r="G106" t="s">
+        <v>280</v>
+      </c>
+      <c r="H106" t="s">
+        <v>381</v>
+      </c>
+      <c r="I106" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>119</v>
+      </c>
+      <c r="F107" t="s">
+        <v>177</v>
+      </c>
+      <c r="G107" t="s">
+        <v>281</v>
+      </c>
+      <c r="H107" t="s">
+        <v>382</v>
+      </c>
+      <c r="I107" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>120</v>
+      </c>
+      <c r="F108" t="s">
+        <v>177</v>
+      </c>
+      <c r="G108" t="s">
+        <v>282</v>
+      </c>
+      <c r="H108" t="s">
+        <v>383</v>
+      </c>
+      <c r="I108" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>121</v>
+      </c>
+      <c r="F109" t="s">
+        <v>178</v>
+      </c>
+      <c r="G109" t="s">
+        <v>283</v>
+      </c>
+      <c r="H109" t="s">
+        <v>384</v>
+      </c>
+      <c r="I109" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>122</v>
+      </c>
+      <c r="F110" t="s">
+        <v>178</v>
+      </c>
+      <c r="G110" t="s">
+        <v>284</v>
+      </c>
+      <c r="I110" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" t="s">
+        <v>123</v>
+      </c>
+      <c r="F111" t="s">
+        <v>178</v>
+      </c>
+      <c r="G111" t="s">
+        <v>285</v>
+      </c>
+      <c r="H111" t="s">
+        <v>385</v>
+      </c>
+      <c r="I111" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" t="s">
+        <v>154</v>
+      </c>
+      <c r="F112" t="s">
+        <v>178</v>
+      </c>
+      <c r="G112" t="s">
+        <v>286</v>
+      </c>
+      <c r="H112" t="s">
+        <v>386</v>
+      </c>
+      <c r="I112" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" t="s">
+        <v>124</v>
+      </c>
+      <c r="F113" t="s">
+        <v>178</v>
+      </c>
+      <c r="G113" t="s">
+        <v>287</v>
+      </c>
+      <c r="H113" t="s">
+        <v>387</v>
+      </c>
+      <c r="I113" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>125</v>
+      </c>
+      <c r="F114" t="s">
+        <v>178</v>
+      </c>
+      <c r="G114" t="s">
+        <v>288</v>
+      </c>
+      <c r="H114" t="s">
+        <v>388</v>
+      </c>
+      <c r="I114" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>12</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>126</v>
+      </c>
+      <c r="F115" t="s">
+        <v>178</v>
+      </c>
+      <c r="G115" t="s">
+        <v>289</v>
+      </c>
+      <c r="H115" t="s">
+        <v>389</v>
+      </c>
+      <c r="I115" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" t="s">
+        <v>127</v>
+      </c>
+      <c r="F116" t="s">
+        <v>178</v>
+      </c>
+      <c r="G116" t="s">
+        <v>290</v>
+      </c>
+      <c r="H116" t="s">
+        <v>390</v>
+      </c>
+      <c r="I116" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" t="s">
+        <v>128</v>
+      </c>
+      <c r="F117" t="s">
+        <v>178</v>
+      </c>
+      <c r="G117" t="s">
+        <v>291</v>
+      </c>
+      <c r="H117" t="s">
+        <v>391</v>
+      </c>
+      <c r="I117" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D118" t="s">
+        <v>155</v>
+      </c>
+      <c r="G118" t="s">
+        <v>292</v>
+      </c>
+      <c r="H118" t="s">
+        <v>392</v>
+      </c>
+      <c r="I118" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>156</v>
+      </c>
+      <c r="G119" t="s">
+        <v>293</v>
+      </c>
+      <c r="H119" t="s">
+        <v>393</v>
+      </c>
+      <c r="I119" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>157</v>
+      </c>
+      <c r="G120" t="s">
+        <v>294</v>
+      </c>
+      <c r="H120" t="s">
+        <v>394</v>
+      </c>
+      <c r="I120" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>158</v>
+      </c>
+      <c r="G121" t="s">
+        <v>295</v>
+      </c>
+      <c r="H121" t="s">
+        <v>395</v>
+      </c>
+      <c r="I121" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122" t="s">
+        <v>159</v>
+      </c>
+      <c r="G122" t="s">
+        <v>296</v>
+      </c>
+      <c r="H122" t="s">
+        <v>396</v>
+      </c>
+      <c r="I122" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="D123" t="s">
+        <v>160</v>
+      </c>
+      <c r="G123" t="s">
         <v>297</v>
+      </c>
+      <c r="H123" t="s">
+        <v>397</v>
+      </c>
+      <c r="I123" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
